--- a/Adhyayan.xlsx
+++ b/Adhyayan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="420">
   <si>
     <t>SR. NO.</t>
   </si>
@@ -251,6 +251,9 @@
     <t>KUSBUL NISHA</t>
   </si>
   <si>
+    <t>/</t>
+  </si>
+  <si>
     <t>KHUSHBU KUMARI</t>
   </si>
   <si>
@@ -672,18 +675,617 @@
   </si>
   <si>
     <t>NIRANJAN KUMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ravi Kumar </t>
+  </si>
+  <si>
+    <t>Adhyayan</t>
+  </si>
+  <si>
+    <t>LAte Ajay Yadav</t>
+  </si>
+  <si>
+    <t>Bihta Patna</t>
+  </si>
+  <si>
+    <t>Nishant kumar</t>
+  </si>
+  <si>
+    <t>Dinkar kumar</t>
+  </si>
+  <si>
+    <t>Saurav Kumar</t>
+  </si>
+  <si>
+    <t>Bijendra Sav</t>
+  </si>
+  <si>
+    <t>Shubham Kumar</t>
+  </si>
+  <si>
+    <t>Late Sanbhuanth Dubey</t>
+  </si>
+  <si>
+    <t>Manish Kumar</t>
+  </si>
+  <si>
+    <t>Shiv kumar Pandit</t>
+  </si>
+  <si>
+    <t>Gaurav Kaumar</t>
+  </si>
+  <si>
+    <t>Niraj kumar</t>
+  </si>
+  <si>
+    <t>Jalesh kumar</t>
+  </si>
+  <si>
+    <t>Rajiv Ranjan</t>
+  </si>
+  <si>
+    <t>Satyendra Pandit</t>
+  </si>
+  <si>
+    <t>Ranajn Kumar</t>
+  </si>
+  <si>
+    <t>Kamlesh Chaudhary</t>
+  </si>
+  <si>
+    <t>Santosh Kumar</t>
+  </si>
+  <si>
+    <t>Ramjit Yadav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sashiranjan kumar </t>
+  </si>
+  <si>
+    <t>arvind mistri</t>
+  </si>
+  <si>
+    <t>Ayush Kumar</t>
+  </si>
+  <si>
+    <t>Bablu Kumar</t>
+  </si>
+  <si>
+    <t>Laxman Yadav</t>
+  </si>
+  <si>
+    <t>15-02-2008</t>
+  </si>
+  <si>
+    <t>Aashish kumar</t>
+  </si>
+  <si>
+    <t>Jalesh Vishwakarma</t>
+  </si>
+  <si>
+    <t>aditya kumar</t>
+  </si>
+  <si>
+    <t>kamli devi</t>
+  </si>
+  <si>
+    <t>ankit kumar</t>
+  </si>
+  <si>
+    <t>krishna ram</t>
+  </si>
+  <si>
+    <t>Araman Alam</t>
+  </si>
+  <si>
+    <t>Rafik Alam</t>
+  </si>
+  <si>
+    <t>Himanshu + Raj</t>
+  </si>
+  <si>
+    <t>Mukesh Kumar</t>
+  </si>
+  <si>
+    <t>Himanshu Kumar</t>
+  </si>
+  <si>
+    <t>Laldev Yadav</t>
+  </si>
+  <si>
+    <t>police Raw</t>
+  </si>
+  <si>
+    <t>Md Imran Ali</t>
+  </si>
+  <si>
+    <t>Md Mustak Ahamad</t>
+  </si>
+  <si>
+    <t>opendar chaudhary</t>
+  </si>
+  <si>
+    <t>maohan chaudhary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priyanka kumari </t>
+  </si>
+  <si>
+    <t>Raushan Kumar</t>
+  </si>
+  <si>
+    <t>Madhuri Devi</t>
+  </si>
+  <si>
+    <t>ritik raj</t>
+  </si>
+  <si>
+    <t>ravindra kumar</t>
+  </si>
+  <si>
+    <t>ROhit Kumar</t>
+  </si>
+  <si>
+    <t>Sanjay RAm</t>
+  </si>
+  <si>
+    <t>SuDhanshu Kumar</t>
+  </si>
+  <si>
+    <t>Vicky Kumar</t>
+  </si>
+  <si>
+    <t>Lal Paswan</t>
+  </si>
+  <si>
+    <t>abhishek kumar</t>
+  </si>
+  <si>
+    <t>satish kumar</t>
+  </si>
+  <si>
+    <t>Aman kumar</t>
+  </si>
+  <si>
+    <t>Niranjan Kumar</t>
+  </si>
+  <si>
+    <t>Ankush Kumar</t>
+  </si>
+  <si>
+    <t>Ashok kumar</t>
+  </si>
+  <si>
+    <t>armaan alam</t>
+  </si>
+  <si>
+    <t>mustaaf ahmed</t>
+  </si>
+  <si>
+    <t>Ashutosh kumar</t>
+  </si>
+  <si>
+    <t>Doman Chaudhary</t>
+  </si>
+  <si>
+    <t>chandan kumar</t>
+  </si>
+  <si>
+    <t>ranjan lal</t>
+  </si>
+  <si>
+    <t>Deepak kumar</t>
+  </si>
+  <si>
+    <t>Rajkumar Pandit</t>
+  </si>
+  <si>
+    <t>Gopi Kumar</t>
+  </si>
+  <si>
+    <t>Santosh Shah</t>
+  </si>
+  <si>
+    <t>Gunajan Kumar</t>
+  </si>
+  <si>
+    <t>Anju Devi</t>
+  </si>
+  <si>
+    <t>Madhusudhan Kumar</t>
+  </si>
+  <si>
+    <t>Arun Choudhary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Md Ashif </t>
+  </si>
+  <si>
+    <t>Md Alim Ansari</t>
+  </si>
+  <si>
+    <t>Omprakash kumar</t>
+  </si>
+  <si>
+    <t>Jhunjhun Pashuram</t>
+  </si>
+  <si>
+    <t>ashok Kumar</t>
+  </si>
+  <si>
+    <t>Sachin Kumar</t>
+  </si>
+  <si>
+    <t>Sameer Kumar</t>
+  </si>
+  <si>
+    <t>Manoj Kumar</t>
+  </si>
+  <si>
+    <t>vivek kumar</t>
+  </si>
+  <si>
+    <t>sanjay lal</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>Monu kumar</t>
+  </si>
+  <si>
+    <t>kundan kumar</t>
+  </si>
+  <si>
+    <t>Ramayodhya Saw</t>
+  </si>
+  <si>
+    <t>Kuldeep Kumar</t>
+  </si>
+  <si>
+    <t>Krishna Kumar</t>
+  </si>
+  <si>
+    <t>26-04-2007</t>
+  </si>
+  <si>
+    <t>Biku Kumar</t>
+  </si>
+  <si>
+    <t>Surendra</t>
+  </si>
+  <si>
+    <t>Nithish Kumar</t>
+  </si>
+  <si>
+    <t>Amrajeet Kumar</t>
+  </si>
+  <si>
+    <t>Yamuna Kumar</t>
+  </si>
+  <si>
+    <t>Sanjay Majhi</t>
+  </si>
+  <si>
+    <t>Laxman Kumar</t>
+  </si>
+  <si>
+    <t>Raamu Saav</t>
+  </si>
+  <si>
+    <t>Ajit Kumar</t>
+  </si>
+  <si>
+    <t>Anish kaumr</t>
+  </si>
+  <si>
+    <t>Krishna Paswan</t>
+  </si>
+  <si>
+    <t>Ankit kumar</t>
+  </si>
+  <si>
+    <t>Jitendra Kumar</t>
+  </si>
+  <si>
+    <t>aryanandan kishor</t>
+  </si>
+  <si>
+    <t>ravinandan kishor</t>
+  </si>
+  <si>
+    <t>Bipul Kumar</t>
+  </si>
+  <si>
+    <t>Munna Saw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jassi kumar </t>
+  </si>
+  <si>
+    <t>Nagendra Raj</t>
+  </si>
+  <si>
+    <t>Nikhil KUmar</t>
+  </si>
+  <si>
+    <t>Sanjay Shah</t>
+  </si>
+  <si>
+    <t>PriyRanjan Kumar</t>
+  </si>
+  <si>
+    <t>Arvind Mistri</t>
+  </si>
+  <si>
+    <t>raj kumar</t>
+  </si>
+  <si>
+    <t>murari chaudhary</t>
+  </si>
+  <si>
+    <t>Raja Babu</t>
+  </si>
+  <si>
+    <t>Amarjit kumar</t>
+  </si>
+  <si>
+    <t>Rimjhim Kumari</t>
+  </si>
+  <si>
+    <t>Sanjay Mahto</t>
+  </si>
+  <si>
+    <t>Ritesh Kumar</t>
+  </si>
+  <si>
+    <t>Surendra Yadav</t>
+  </si>
+  <si>
+    <t>Sanjeet Kumar</t>
+  </si>
+  <si>
+    <t>Umesh Ray</t>
+  </si>
+  <si>
+    <t>Satyjeet Kumar</t>
+  </si>
+  <si>
+    <t>Rishan kumar</t>
+  </si>
+  <si>
+    <t>Satyam Kumar</t>
+  </si>
+  <si>
+    <t>Gopal Tiwari</t>
+  </si>
+  <si>
+    <t>Kundan kumar</t>
+  </si>
+  <si>
+    <t>Pawan Kumar</t>
+  </si>
+  <si>
+    <t>13-08-2006</t>
+  </si>
+  <si>
+    <t>Roshan Raj</t>
+  </si>
+  <si>
+    <t>Pinku Singh</t>
+  </si>
+  <si>
+    <t>22-03-2006</t>
+  </si>
+  <si>
+    <t>Sumit kumar</t>
+  </si>
+  <si>
+    <t>Sanjay Choudhary</t>
+  </si>
+  <si>
+    <t>Sanjay Ram</t>
+  </si>
+  <si>
+    <t>17-04-2003</t>
+  </si>
+  <si>
+    <t>Amarjit Kumar</t>
+  </si>
+  <si>
+    <t>Chanda Ram</t>
+  </si>
+  <si>
+    <t>Ram Kumar</t>
+  </si>
+  <si>
+    <t>RamuSaav</t>
+  </si>
+  <si>
+    <t>Uttam Raj</t>
+  </si>
+  <si>
+    <t>Ajay Ram</t>
+  </si>
+  <si>
+    <t>Mithilesh Kumar</t>
+  </si>
+  <si>
+    <t>Shambhu sav</t>
+  </si>
+  <si>
+    <t>Abhinandan Kishor</t>
+  </si>
+  <si>
+    <t>Ravinandan Kishor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aman Raj </t>
+  </si>
+  <si>
+    <t>Rajesh Matho</t>
+  </si>
+  <si>
+    <t>Amit kumar</t>
+  </si>
+  <si>
+    <t>Sanjay Yadav</t>
+  </si>
+  <si>
+    <t>Chotalal Das</t>
+  </si>
+  <si>
+    <t>Anurag Mishra</t>
+  </si>
+  <si>
+    <t>Late.Rakesh Kumar</t>
+  </si>
+  <si>
+    <t>ashutosh Kumar</t>
+  </si>
+  <si>
+    <t>Raviranjan Gupta</t>
+  </si>
+  <si>
+    <t>Dilip kumar</t>
+  </si>
+  <si>
+    <t>Jai Prakash saw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hariom </t>
+  </si>
+  <si>
+    <t>Arjun Pandit</t>
+  </si>
+  <si>
+    <t>Karan Kumar</t>
+  </si>
+  <si>
+    <t>Nikhil kumar</t>
+  </si>
+  <si>
+    <t>Preeti Kumari</t>
+  </si>
+  <si>
+    <t>Raj kumar</t>
+  </si>
+  <si>
+    <t>Late. Sambhunath Dubey</t>
+  </si>
+  <si>
+    <t>rajnish kumar</t>
+  </si>
+  <si>
+    <t>Rohit KUmar</t>
+  </si>
+  <si>
+    <t>Ashok Kumar</t>
+  </si>
+  <si>
+    <t>sagar kumar</t>
+  </si>
+  <si>
+    <t>manoj bajpayee</t>
+  </si>
+  <si>
+    <t>Sahnawaj Raja</t>
+  </si>
+  <si>
+    <t>Mumtaz Ansari</t>
+  </si>
+  <si>
+    <t>sonu kumar</t>
+  </si>
+  <si>
+    <t>vipin prasad yadav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vikash kumar </t>
+  </si>
+  <si>
+    <t>Sidhanath Mistri</t>
+  </si>
+  <si>
+    <t>Vikki Kumar</t>
+  </si>
+  <si>
+    <t>Nalin Kumar</t>
+  </si>
+  <si>
+    <t>Vijay kumar</t>
+  </si>
+  <si>
+    <t>Manu kumar</t>
+  </si>
+  <si>
+    <t>Manoj Saw</t>
+  </si>
+  <si>
+    <t>Ritik Raj</t>
+  </si>
+  <si>
+    <t>Ram Badan Prasad</t>
+  </si>
+  <si>
+    <t>14-01-2004</t>
+  </si>
+  <si>
+    <t>Lal Babu Kumar</t>
+  </si>
+  <si>
+    <t>Anand Kumar</t>
+  </si>
+  <si>
+    <t>Mukesh sav</t>
+  </si>
+  <si>
+    <t>Golu Kumar</t>
+  </si>
+  <si>
+    <t>Chandra Bhushan Mishra</t>
+  </si>
+  <si>
+    <t>Jeetwadhan</t>
+  </si>
+  <si>
+    <t>Avinash Kumar</t>
+  </si>
+  <si>
+    <t>Subodh Ram</t>
+  </si>
+  <si>
+    <t>Guduu Kumar</t>
+  </si>
+  <si>
+    <t>Pankaj Saw</t>
+  </si>
+  <si>
+    <t>Baijnath Kumar</t>
+  </si>
+  <si>
+    <t>Pankaj Kumar</t>
+  </si>
+  <si>
+    <t>Brij  kumar</t>
+  </si>
+  <si>
+    <t>ramesh shaw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="166" formatCode="dd/mm"/>
+    <numFmt numFmtId="167" formatCode="m-d-yyyy"/>
+    <numFmt numFmtId="168" formatCode="mm-dd-yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -706,8 +1308,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -720,6 +1325,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0F7FA"/>
+        <bgColor rgb="FFE0F7FA"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -727,7 +1338,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -755,11 +1366,103 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE0F7FA"/>
+          <bgColor rgb="FFE0F7FA"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2">
+    <tableStyle count="2" pivot="0" name="Sheet1-style">
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="Sheet1-style 2">
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
@@ -769,6 +1472,27 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="G73:I181" displayName="Table_1" id="1">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="Sheet1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E73:F181" displayName="Table_2" id="2">
+  <tableColumns count="2">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+  </tableColumns>
+  <tableStyleInfo name="Sheet1-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1447,6 +2171,9 @@
       <c r="G18" s="4">
         <v>40179.0</v>
       </c>
+      <c r="H18" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="I18" s="5" t="s">
         <v>15</v>
       </c>
@@ -1465,7 +2192,7 @@
         <v>48.0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C19" s="3">
         <v>6.0</v>
@@ -1474,16 +2201,16 @@
         <v>24</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G19" s="4">
         <v>39675.0</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>15</v>
@@ -1503,7 +2230,7 @@
         <v>50.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C20" s="3">
         <v>6.0</v>
@@ -1512,10 +2239,10 @@
         <v>24</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G20" s="4">
         <v>39515.0</v>
@@ -1541,7 +2268,7 @@
         <v>53.0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C21" s="3">
         <v>6.0</v>
@@ -1550,10 +2277,10 @@
         <v>43</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G21" s="4">
         <v>39885.0</v>
@@ -1579,7 +2306,7 @@
         <v>57.0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C22" s="3">
         <v>6.0</v>
@@ -1588,10 +2315,10 @@
         <v>32</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G22" s="6">
         <v>39080.0</v>
@@ -1617,7 +2344,7 @@
         <v>58.0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C23" s="3">
         <v>6.0</v>
@@ -1626,10 +2353,10 @@
         <v>32</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G23" s="4">
         <v>39552.0</v>
@@ -1655,19 +2382,19 @@
         <v>10.0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C24" s="3">
         <v>7.0</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G24" s="4">
         <v>39814.0</v>
@@ -1693,19 +2420,19 @@
         <v>12.0</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C25" s="3">
         <v>7.0</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G25" s="4">
         <v>39124.0</v>
@@ -1740,10 +2467,10 @@
         <v>24</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G26" s="4">
         <v>39151.0</v>
@@ -1769,7 +2496,7 @@
         <v>16.0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C27" s="3">
         <v>7.0</v>
@@ -1778,10 +2505,10 @@
         <v>24</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G27" s="4">
         <v>39448.0</v>
@@ -1807,7 +2534,7 @@
         <v>22.0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C28" s="3">
         <v>7.0</v>
@@ -1816,10 +2543,10 @@
         <v>24</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G28" s="4">
         <v>39578.0</v>
@@ -1854,10 +2581,10 @@
         <v>24</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G29" s="6">
         <v>39398.0</v>
@@ -1883,7 +2610,7 @@
         <v>34.0</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C30" s="3">
         <v>7.0</v>
@@ -1892,16 +2619,16 @@
         <v>24</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G30" s="4">
         <v>38718.0</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>15</v>
@@ -1921,7 +2648,7 @@
         <v>35.0</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C31" s="3">
         <v>7.0</v>
@@ -1930,10 +2657,10 @@
         <v>24</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G31" s="4">
         <v>39151.0</v>
@@ -1959,7 +2686,7 @@
         <v>36.0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C32" s="3">
         <v>7.0</v>
@@ -1968,16 +2695,16 @@
         <v>24</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G32" s="4">
         <v>39177.0</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>15</v>
@@ -1997,7 +2724,7 @@
         <v>40.0</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C33" s="3">
         <v>7.0</v>
@@ -2006,16 +2733,16 @@
         <v>24</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G33" s="4">
         <v>39180.0</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>15</v>
@@ -2027,7 +2754,7 @@
         <v>22</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34">
@@ -2035,7 +2762,7 @@
         <v>47.0</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C34" s="3">
         <v>7.0</v>
@@ -2044,10 +2771,10 @@
         <v>24</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G34" s="4">
         <v>39083.0</v>
@@ -2073,7 +2800,7 @@
         <v>49.0</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C35" s="3">
         <v>7.0</v>
@@ -2082,16 +2809,16 @@
         <v>24</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G35" s="4">
         <v>39114.0</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>15</v>
@@ -2111,19 +2838,19 @@
         <v>62.0</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C36" s="3">
         <v>7.0</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G36" s="4">
         <v>39262.0</v>
@@ -2149,7 +2876,7 @@
         <v>63.0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C37" s="3">
         <v>7.0</v>
@@ -2158,16 +2885,16 @@
         <v>43</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G37" s="4">
         <v>37500.0</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>41</v>
@@ -2187,7 +2914,7 @@
         <v>64.0</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C38" s="3">
         <v>7.0</v>
@@ -2196,10 +2923,10 @@
         <v>32</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G38" s="4">
         <v>39146.0</v>
@@ -2225,7 +2952,7 @@
         <v>65.0</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C39" s="3">
         <v>7.0</v>
@@ -2272,7 +2999,7 @@
         <v>32</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G40" s="4">
         <v>39173.0</v>
@@ -2298,7 +3025,7 @@
         <v>1.0</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C41" s="3">
         <v>8.0</v>
@@ -2307,10 +3034,10 @@
         <v>24</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G41" s="4">
         <v>38812.0</v>
@@ -2319,7 +3046,7 @@
         <v>9.334321406E9</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J41" s="3">
         <v>7.33515049514E11</v>
@@ -2336,7 +3063,7 @@
         <v>4.0</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C42" s="3">
         <v>8.0</v>
@@ -2345,10 +3072,10 @@
         <v>43</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G42" s="4">
         <v>38475.0</v>
@@ -2374,7 +3101,7 @@
         <v>5.0</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C43" s="3">
         <v>8.0</v>
@@ -2383,10 +3110,10 @@
         <v>24</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G43" s="4">
         <v>38827.0</v>
@@ -2412,16 +3139,16 @@
         <v>6.0</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C44" s="3">
         <v>8.0</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>55</v>
@@ -2450,7 +3177,7 @@
         <v>7.0</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C45" s="3">
         <v>8.0</v>
@@ -2459,10 +3186,10 @@
         <v>24</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G45" s="4">
         <v>37622.0</v>
@@ -2488,7 +3215,7 @@
         <v>9.0</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C46" s="3">
         <v>8.0</v>
@@ -2497,10 +3224,10 @@
         <v>24</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G46" s="4">
         <v>38996.0</v>
@@ -2532,13 +3259,13 @@
         <v>8.0</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G47" s="4">
         <v>38840.0</v>
@@ -2564,25 +3291,25 @@
         <v>20.0</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C48" s="3">
         <v>8.0</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G48" s="4">
         <v>38843.0</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>15</v>
@@ -2602,7 +3329,7 @@
         <v>23.0</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C49" s="3">
         <v>8.0</v>
@@ -2611,16 +3338,16 @@
         <v>24</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G49" s="4">
         <v>37780.0</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>15</v>
@@ -2640,7 +3367,7 @@
         <v>27.0</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C50" s="3">
         <v>8.0</v>
@@ -2652,7 +3379,7 @@
         <v>29</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G50" s="6">
         <v>39047.0</v>
@@ -2678,7 +3405,7 @@
         <v>30.0</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C51" s="3">
         <v>8.0</v>
@@ -2687,16 +3414,16 @@
         <v>24</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G51" s="4">
         <v>38763.0</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>15</v>
@@ -2716,7 +3443,7 @@
         <v>33.0</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C52" s="3">
         <v>8.0</v>
@@ -2725,10 +3452,10 @@
         <v>24</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G52" s="4">
         <v>38839.0</v>
@@ -2754,7 +3481,7 @@
         <v>39.0</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C53" s="3">
         <v>8.0</v>
@@ -2763,10 +3490,10 @@
         <v>24</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G53" s="4">
         <v>38954.0</v>
@@ -2792,7 +3519,7 @@
         <v>41.0</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C54" s="3">
         <v>8.0</v>
@@ -2801,10 +3528,10 @@
         <v>24</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G54" s="4">
         <v>38750.0</v>
@@ -2830,7 +3557,7 @@
         <v>43.0</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C55" s="3">
         <v>8.0</v>
@@ -2839,10 +3566,10 @@
         <v>24</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G55" s="4">
         <v>38780.0</v>
@@ -2860,7 +3587,7 @@
         <v>16</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56">
@@ -2868,7 +3595,7 @@
         <v>52.0</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C56" s="3">
         <v>8.0</v>
@@ -2877,16 +3604,16 @@
         <v>32</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G56" s="6">
         <v>39034.0</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>41</v>
@@ -2906,19 +3633,19 @@
         <v>61.0</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C57" s="3">
         <v>8.0</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G57" s="4">
         <v>37765.0</v>
@@ -2944,7 +3671,7 @@
         <v>70.0</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C58" s="3">
         <v>8.0</v>
@@ -2953,10 +3680,10 @@
         <v>32</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G58" s="7">
         <v>39448.0</v>
@@ -2982,19 +3709,19 @@
         <v>3.0</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C59" s="3">
         <v>9.0</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G59" s="4">
         <v>38452.0</v>
@@ -3020,7 +3747,7 @@
         <v>8.0</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C60" s="3">
         <v>9.0</v>
@@ -3029,10 +3756,10 @@
         <v>24</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G60" s="4">
         <v>39114.0</v>
@@ -3058,16 +3785,16 @@
         <v>13.0</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C61" s="3">
         <v>9.0</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G61" s="4">
         <v>38763.0</v>
@@ -3093,7 +3820,7 @@
         <v>15.0</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C62" s="3">
         <v>9.0</v>
@@ -3102,13 +3829,16 @@
         <v>24</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G62" s="4">
         <v>38777.0</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="I62" s="5" t="s">
         <v>15</v>
@@ -3128,19 +3858,19 @@
         <v>26.0</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C63" s="3">
         <v>9.0</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G63" s="4">
         <v>38393.0</v>
@@ -3166,19 +3896,19 @@
         <v>29.0</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C64" s="3">
         <v>9.0</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G64" s="4">
         <v>38722.0</v>
@@ -3204,25 +3934,25 @@
         <v>31.0</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C65" s="3">
         <v>9.0</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G65" s="6">
         <v>38270.0</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>15</v>
@@ -3242,19 +3972,19 @@
         <v>38.0</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C66" s="3">
         <v>9.0</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G66" s="4">
         <v>40179.0</v>
@@ -3269,7 +3999,7 @@
         <v>7.50759743697E11</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>16</v>
@@ -3280,25 +4010,25 @@
         <v>45.0</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C67" s="3">
         <v>9.0</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G67" s="4">
         <v>37508.0</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I67" s="5" t="s">
         <v>15</v>
@@ -3307,7 +4037,7 @@
         <v>22</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68">
@@ -3315,7 +4045,7 @@
         <v>51.0</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C68" s="3">
         <v>9.0</v>
@@ -3324,16 +4054,16 @@
         <v>32</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G68" s="4">
         <v>38390.0</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>36</v>
@@ -3353,7 +4083,7 @@
         <v>54.0</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C69" s="3">
         <v>9.0</v>
@@ -3374,7 +4104,7 @@
         <v>35</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J69" s="3">
         <v>5.88585517091E11</v>
@@ -3391,7 +4121,7 @@
         <v>60.0</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C70" s="3">
         <v>9.0</v>
@@ -3400,10 +4130,10 @@
         <v>32</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G70" s="4">
         <v>38490.0</v>
@@ -3438,10 +4168,10 @@
         <v>32</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G71" s="4">
         <v>39083.0</v>
@@ -3467,19 +4197,19 @@
         <v>2.0</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C72" s="3">
         <v>10.0</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G72" s="6">
         <v>38339.0</v>
@@ -3488,7 +4218,7 @@
         <v>9.334321406E9</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J72" s="3">
         <v>2.77520270961E11</v>
@@ -3504,19 +4234,3223 @@
       <c r="A73" s="3">
         <v>72.0</v>
       </c>
+      <c r="B73" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C73" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G73" s="12"/>
+      <c r="H73" s="14">
+        <v>9.060458475E9</v>
+      </c>
+      <c r="I73" s="15" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="3">
         <v>73.0</v>
       </c>
+      <c r="B74" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C74" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G74" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H74" s="20">
+        <v>9.709934452E9</v>
+      </c>
+      <c r="I74" s="15" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="3">
         <v>74.0</v>
       </c>
+      <c r="B75" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C75" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H75" s="14">
+        <v>7.491812236E9</v>
+      </c>
+      <c r="I75" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3">
+        <v>75.0</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C76" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G76" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H76" s="20">
+        <v>6.205551335E9</v>
+      </c>
+      <c r="I76" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3">
+        <v>76.0</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C77" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H77" s="14">
+        <v>8.969425701E9</v>
+      </c>
+      <c r="I77" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3">
+        <v>77.0</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C78" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G78" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H78" s="20">
+        <v>7.491812236E9</v>
+      </c>
+      <c r="I78" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3">
+        <v>78.0</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C79" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H79" s="14">
+        <v>9.507818773E9</v>
+      </c>
+      <c r="I79" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3">
+        <v>79.0</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C80" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G80" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H80" s="20">
+        <v>9.708082325E9</v>
+      </c>
+      <c r="I80" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C81" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H81" s="14">
+        <v>7.492943198E9</v>
+      </c>
+      <c r="I81" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3">
+        <v>81.0</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C82" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G82" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H82" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I82" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3">
+        <v>82.0</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C83" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H83" s="14">
+        <v>9.507274237E9</v>
+      </c>
+      <c r="I83" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3">
+        <v>83.0</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C84" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G84" s="21">
+        <v>40524.0</v>
+      </c>
+      <c r="H84" s="20">
+        <v>9.931710428E9</v>
+      </c>
+      <c r="I84" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3">
+        <v>84.0</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C85" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H85" s="14">
+        <v>8.651666252E9</v>
+      </c>
+      <c r="I85" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3">
+        <v>85.0</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C86" s="17">
+        <v>6.0</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G86" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H86" s="20">
+        <v>9.507818773E9</v>
+      </c>
+      <c r="I86" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3">
+        <v>86.0</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C87" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H87" s="14">
+        <v>9.708082325E9</v>
+      </c>
+      <c r="I87" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3">
+        <v>87.0</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C88" s="17">
+        <v>6.0</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G88" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H88" s="20">
+        <v>7.700858602E9</v>
+      </c>
+      <c r="I88" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3">
+        <v>88.0</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C89" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H89" s="14">
+        <v>9.708381327E9</v>
+      </c>
+      <c r="I89" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3">
+        <v>89.0</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C90" s="17">
+        <v>6.0</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G90" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H90" s="20">
+        <v>6.203142206E9</v>
+      </c>
+      <c r="I90" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C91" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H91" s="14">
+        <v>8.271101069E9</v>
+      </c>
+      <c r="I91" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3">
+        <v>91.0</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C92" s="17">
+        <v>6.0</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E92" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G92" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H92" s="20">
+        <v>9.525544125E9</v>
+      </c>
+      <c r="I92" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3">
+        <v>92.0</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C93" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H93" s="14">
+        <v>8.809401306E9</v>
+      </c>
+      <c r="I93" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3">
+        <v>93.0</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C94" s="17">
+        <v>6.0</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G94" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H94" s="20">
+        <v>7.782987904E9</v>
+      </c>
+      <c r="I94" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3">
+        <v>94.0</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C95" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H95" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I95" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3">
+        <v>95.0</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C96" s="17">
+        <v>6.0</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E96" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G96" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H96" s="20">
+        <v>9.23438164E9</v>
+      </c>
+      <c r="I96" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3">
+        <v>96.0</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C97" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H97" s="14">
+        <v>7.070500388E9</v>
+      </c>
+      <c r="I97" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3">
+        <v>97.0</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C98" s="17">
+        <v>6.0</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E98" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G98" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H98" s="20">
+        <v>8.271746928E9</v>
+      </c>
+      <c r="I98" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3">
+        <v>98.0</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C99" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="F99" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G99" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H99" s="14">
+        <v>8.271111069E9</v>
+      </c>
+      <c r="I99" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3">
+        <v>99.0</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C100" s="17">
+        <v>6.0</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E100" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G100" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H100" s="20">
+        <v>7.700859047E9</v>
+      </c>
+      <c r="I100" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C101" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H101" s="14">
+        <v>9.304729726E9</v>
+      </c>
+      <c r="I101" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3">
+        <v>101.0</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C102" s="17">
+        <v>7.0</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="F102" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G102" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H102" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I102" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3">
+        <v>102.0</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C103" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F103" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H103" s="14">
+        <v>8.651101995E9</v>
+      </c>
+      <c r="I103" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3">
+        <v>103.0</v>
+      </c>
+      <c r="B104" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C104" s="17">
+        <v>7.0</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E104" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G104" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H104" s="20">
+        <v>8.809401306E9</v>
+      </c>
+      <c r="I104" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3">
+        <v>104.0</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C105" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H105" s="14">
+        <v>9.128093951E9</v>
+      </c>
+      <c r="I105" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3">
+        <v>105.0</v>
+      </c>
+      <c r="B106" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C106" s="17">
+        <v>7.0</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E106" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="F106" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G106" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H106" s="20">
+        <v>8.873932465E9</v>
+      </c>
+      <c r="I106" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3">
+        <v>106.0</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C107" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="F107" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G107" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H107" s="14">
+        <v>8.226855027E9</v>
+      </c>
+      <c r="I107" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3">
+        <v>107.0</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C108" s="17">
+        <v>7.0</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E108" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="F108" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G108" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H108" s="20">
+        <v>8.873185267E9</v>
+      </c>
+      <c r="I108" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3">
+        <v>108.0</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C109" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G109" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H109" s="14">
+        <v>9.060458914E9</v>
+      </c>
+      <c r="I109" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3">
+        <v>109.0</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C110" s="17">
+        <v>7.0</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E110" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G110" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H110" s="20">
+        <v>6.204877844E9</v>
+      </c>
+      <c r="I110" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3">
+        <v>110.0</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C111" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F111" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G111" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H111" s="14">
+        <v>8.114542109E9</v>
+      </c>
+      <c r="I111" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3">
+        <v>111.0</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C112" s="17">
+        <v>7.0</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E112" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="F112" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G112" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H112" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I112" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3">
+        <v>112.0</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C113" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G113" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H113" s="14">
+        <v>9.608465434E9</v>
+      </c>
+      <c r="I113" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3">
+        <v>113.0</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C114" s="17">
+        <v>7.0</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E114" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G114" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H114" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I114" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3">
+        <v>114.0</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C115" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F115" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G115" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H115" s="14">
+        <v>8.271264379E9</v>
+      </c>
+      <c r="I115" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3">
+        <v>115.0</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C116" s="17">
+        <v>7.0</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E116" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="F116" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G116" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="H116" s="20">
+        <v>9.955478862E9</v>
+      </c>
+      <c r="I116" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3">
+        <v>116.0</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C117" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G117" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H117" s="14">
+        <v>8.969425701E9</v>
+      </c>
+      <c r="I117" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="3">
+        <v>117.0</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C118" s="17">
+        <v>7.0</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E118" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="F118" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G118" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H118" s="20">
+        <v>8.22793174E9</v>
+      </c>
+      <c r="I118" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3">
+        <v>118.0</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C119" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="F119" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="H119" s="14">
+        <v>9.905559265E9</v>
+      </c>
+      <c r="I119" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="3">
+        <v>119.0</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C120" s="17">
+        <v>7.0</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E120" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="F120" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G120" s="22">
+        <v>37987.0</v>
+      </c>
+      <c r="H120" s="20">
+        <v>8.298824921E9</v>
+      </c>
+      <c r="I120" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="3">
+        <v>120.0</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C121" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F121" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G121" s="23">
+        <v>39423.0</v>
+      </c>
+      <c r="H121" s="14">
+        <v>8.271618173E9</v>
+      </c>
+      <c r="I121" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3">
+        <v>121.0</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C122" s="17">
+        <v>7.0</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E122" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="F122" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G122" s="22">
+        <v>39054.0</v>
+      </c>
+      <c r="H122" s="20">
+        <v>7.256853964E9</v>
+      </c>
+      <c r="I122" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3">
+        <v>122.0</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C123" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="F123" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G123" s="23">
+        <v>38841.0</v>
+      </c>
+      <c r="H123" s="14">
+        <v>6.206539192E9</v>
+      </c>
+      <c r="I123" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3">
+        <v>123.0</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C124" s="17">
+        <v>8.0</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E124" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="F124" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G124" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H124" s="20">
+        <v>8.651666881E9</v>
+      </c>
+      <c r="I124" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="3">
+        <v>124.0</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C125" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="F125" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G125" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H125" s="14">
+        <v>7.070141513E9</v>
+      </c>
+      <c r="I125" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="3">
+        <v>125.0</v>
+      </c>
+      <c r="B126" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="C126" s="17">
+        <v>8.0</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E126" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="F126" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G126" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H126" s="20">
+        <v>7.65427853E9</v>
+      </c>
+      <c r="I126" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="3">
+        <v>126.0</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C127" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="F127" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G127" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H127" s="14">
+        <v>9.576243177E9</v>
+      </c>
+      <c r="I127" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="3">
+        <v>127.0</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="C128" s="17">
+        <v>8.0</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E128" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="F128" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G128" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H128" s="20">
+        <v>7.3679621E9</v>
+      </c>
+      <c r="I128" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="3">
+        <v>128.0</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C129" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="F129" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G129" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H129" s="14">
+        <v>7.35221626E9</v>
+      </c>
+      <c r="I129" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="3">
+        <v>129.0</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="C130" s="17">
+        <v>8.0</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E130" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="F130" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G130" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H130" s="20">
+        <v>7.323853952E9</v>
+      </c>
+      <c r="I130" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="3">
+        <v>130.0</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C131" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="F131" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G131" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H131" s="14">
+        <v>9.507274237E9</v>
+      </c>
+      <c r="I131" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="3">
+        <v>131.0</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="C132" s="17">
+        <v>8.0</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E132" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G132" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H132" s="20">
+        <v>9.234690234E9</v>
+      </c>
+      <c r="I132" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="3">
+        <v>132.0</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C133" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="F133" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G133" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H133" s="14">
+        <v>8.271618173E9</v>
+      </c>
+      <c r="I133" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="3">
+        <v>133.0</v>
+      </c>
+      <c r="B134" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="C134" s="17">
+        <v>8.0</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E134" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="F134" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G134" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H134" s="20">
+        <v>8.002135938E9</v>
+      </c>
+      <c r="I134" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3">
+        <v>134.0</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C135" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="F135" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G135" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H135" s="14">
+        <v>7.319626844E9</v>
+      </c>
+      <c r="I135" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="3">
+        <v>135.0</v>
+      </c>
+      <c r="B136" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="C136" s="17">
+        <v>8.0</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E136" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="F136" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G136" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H136" s="20">
+        <v>7.5570211E8</v>
+      </c>
+      <c r="I136" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="3">
+        <v>136.0</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C137" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="F137" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G137" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H137" s="14">
+        <v>8.789626621E9</v>
+      </c>
+      <c r="I137" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="3">
+        <v>137.0</v>
+      </c>
+      <c r="B138" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="C138" s="17">
+        <v>8.0</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E138" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="F138" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G138" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H138" s="20">
+        <v>7.488303149E9</v>
+      </c>
+      <c r="I138" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="3">
+        <v>138.0</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C139" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="F139" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G139" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="H139" s="14">
+        <v>8.521426678E9</v>
+      </c>
+      <c r="I139" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="3">
+        <v>139.0</v>
+      </c>
+      <c r="B140" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="C140" s="17">
+        <v>8.0</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E140" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="F140" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G140" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="H140" s="20">
+        <v>8.541849954E9</v>
+      </c>
+      <c r="I140" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="3">
+        <v>140.0</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C141" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E141" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="F141" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G141" s="23">
+        <v>37987.0</v>
+      </c>
+      <c r="H141" s="14">
+        <v>8.298824921E9</v>
+      </c>
+      <c r="I141" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="3">
+        <v>141.0</v>
+      </c>
+      <c r="B142" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C142" s="17">
+        <v>8.0</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E142" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="F142" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G142" s="22">
+        <v>38878.0</v>
+      </c>
+      <c r="H142" s="20">
+        <v>9.234690234E9</v>
+      </c>
+      <c r="I142" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="3">
+        <v>142.0</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C143" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="F143" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G143" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="H143" s="14">
+        <v>8.651105821E9</v>
+      </c>
+      <c r="I143" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="3">
+        <v>143.0</v>
+      </c>
+      <c r="B144" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="C144" s="17">
+        <v>8.0</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E144" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="F144" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G144" s="22">
+        <v>38838.0</v>
+      </c>
+      <c r="H144" s="20">
+        <v>7.370946321E9</v>
+      </c>
+      <c r="I144" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="3">
+        <v>144.0</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C145" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="F145" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G145" s="23">
+        <v>38841.0</v>
+      </c>
+      <c r="H145" s="14">
+        <v>6.206539192E9</v>
+      </c>
+      <c r="I145" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="3">
+        <v>145.0</v>
+      </c>
+      <c r="B146" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="C146" s="17">
+        <v>8.0</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E146" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="F146" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G146" s="22">
+        <v>38353.0</v>
+      </c>
+      <c r="H146" s="20">
+        <v>7.654883115E9</v>
+      </c>
+      <c r="I146" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="3">
+        <v>146.0</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C147" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E147" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F147" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G147" s="23">
+        <v>38570.0</v>
+      </c>
+      <c r="H147" s="14">
+        <v>7.492943198E9</v>
+      </c>
+      <c r="I147" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="3">
+        <v>147.0</v>
+      </c>
+      <c r="B148" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C148" s="17">
+        <v>9.0</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E148" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="F148" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G148" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H148" s="20">
+        <v>9.708252292E9</v>
+      </c>
+      <c r="I148" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="3">
+        <v>148.0</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C149" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E149" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="F149" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G149" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H149" s="14">
+        <v>9.576243177E9</v>
+      </c>
+      <c r="I149" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="3">
+        <v>149.0</v>
+      </c>
+      <c r="B150" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="C150" s="17">
+        <v>9.0</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E150" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="F150" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G150" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H150" s="20">
+        <v>7.370091612E9</v>
+      </c>
+      <c r="I150" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="3">
+        <v>150.0</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C151" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="F151" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G151" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="H151" s="14">
+        <v>7.634002038E9</v>
+      </c>
+      <c r="I151" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="3">
+        <v>151.0</v>
+      </c>
+      <c r="B152" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="C152" s="17">
+        <v>9.0</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E152" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="F152" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G152" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H152" s="20">
+        <v>7.079884159E9</v>
+      </c>
+      <c r="I152" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="3">
+        <v>152.0</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C153" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E153" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="F153" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G153" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H153" s="14">
+        <v>9.546870714E9</v>
+      </c>
+      <c r="I153" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="3">
+        <v>153.0</v>
+      </c>
+      <c r="B154" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="C154" s="17">
+        <v>9.0</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E154" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="F154" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G154" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H154" s="20">
+        <v>9.570721323E9</v>
+      </c>
+      <c r="I154" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="3">
+        <v>154.0</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C155" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E155" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="F155" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G155" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H155" s="14">
+        <v>8.521432473E9</v>
+      </c>
+      <c r="I155" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="3">
+        <v>155.0</v>
+      </c>
+      <c r="B156" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="C156" s="17">
+        <v>9.0</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E156" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="F156" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G156" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H156" s="20">
+        <v>7.549428288E9</v>
+      </c>
+      <c r="I156" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="3">
+        <v>156.0</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C157" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F157" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G157" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H157" s="14">
+        <v>6.200153369E9</v>
+      </c>
+      <c r="I157" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="3">
+        <v>157.0</v>
+      </c>
+      <c r="B158" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="C158" s="17">
+        <v>9.0</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E158" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="F158" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G158" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="H158" s="20">
+        <v>9.507818773E9</v>
+      </c>
+      <c r="I158" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="3">
+        <v>158.0</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C159" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E159" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="F159" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G159" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H159" s="14">
+        <v>7.079884159E9</v>
+      </c>
+      <c r="I159" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="3">
+        <v>159.0</v>
+      </c>
+      <c r="B160" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="C160" s="17">
+        <v>9.0</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E160" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="F160" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G160" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="H160" s="20">
+        <v>6.205551335E9</v>
+      </c>
+      <c r="I160" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="3">
+        <v>160.0</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="C161" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E161" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="F161" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G161" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H161" s="14">
+        <v>8.651101995E9</v>
+      </c>
+      <c r="I161" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="3">
+        <v>161.0</v>
+      </c>
+      <c r="B162" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="C162" s="17">
+        <v>9.0</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E162" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="F162" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G162" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H162" s="20">
+        <v>9.608533113E9</v>
+      </c>
+      <c r="I162" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="3">
+        <v>162.0</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C163" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E163" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="F163" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G163" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H163" s="14">
+        <v>9.546870714E9</v>
+      </c>
+      <c r="I163" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="3">
+        <v>163.0</v>
+      </c>
+      <c r="B164" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="C164" s="17">
+        <v>9.0</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E164" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="F164" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G164" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H164" s="20">
+        <v>8.709786621E9</v>
+      </c>
+      <c r="I164" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="3">
+        <v>164.0</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="C165" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E165" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="F165" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G165" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H165" s="14">
+        <v>7.644069135E9</v>
+      </c>
+      <c r="I165" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="3">
+        <v>165.0</v>
+      </c>
+      <c r="B166" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="C166" s="17">
+        <v>9.0</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E166" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="F166" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G166" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H166" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I166" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="3">
+        <v>166.0</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="C167" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E167" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="F167" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G167" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H167" s="14">
+        <v>9.801443047E9</v>
+      </c>
+      <c r="I167" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="3">
+        <v>167.0</v>
+      </c>
+      <c r="B168" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="C168" s="17">
+        <v>9.0</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E168" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="F168" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G168" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H168" s="20">
+        <v>7.667390931E9</v>
+      </c>
+      <c r="I168" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="3">
+        <v>168.0</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C169" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E169" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="F169" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G169" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H169" s="14">
+        <v>7.004154296E9</v>
+      </c>
+      <c r="I169" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="3">
+        <v>169.0</v>
+      </c>
+      <c r="B170" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="C170" s="17">
+        <v>9.0</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E170" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="F170" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G170" s="21">
+        <v>38637.0</v>
+      </c>
+      <c r="H170" s="20">
+        <v>8.292632613E9</v>
+      </c>
+      <c r="I170" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="3">
+        <v>170.0</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C171" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E171" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="F171" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G171" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="H171" s="14">
+        <v>7.654651093E9</v>
+      </c>
+      <c r="I171" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="3">
+        <v>171.0</v>
+      </c>
+      <c r="B172" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C172" s="17">
+        <v>9.0</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E172" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="F172" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G172" s="22">
+        <v>37841.0</v>
+      </c>
+      <c r="H172" s="20">
+        <v>7.645941909E9</v>
+      </c>
+      <c r="I172" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="3">
+        <v>172.0</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="C173" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="F173" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G173" s="23">
+        <v>38627.0</v>
+      </c>
+      <c r="H173" s="14">
+        <v>7.782955673E9</v>
+      </c>
+      <c r="I173" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="3">
+        <v>173.0</v>
+      </c>
+      <c r="B174" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="C174" s="17">
+        <v>9.0</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E174" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="F174" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G174" s="22">
+        <v>38484.0</v>
+      </c>
+      <c r="H174" s="20">
+        <v>9.135247389E9</v>
+      </c>
+      <c r="I174" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="3">
+        <v>174.0</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C175" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E175" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="F175" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G175" s="23">
+        <v>38413.0</v>
+      </c>
+      <c r="H175" s="14">
+        <v>8.651981688E9</v>
+      </c>
+      <c r="I175" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="3">
+        <v>175.0</v>
+      </c>
+      <c r="B176" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="C176" s="17">
+        <v>10.0</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E176" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="F176" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G176" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H176" s="20">
+        <v>9.523222452E9</v>
+      </c>
+      <c r="I176" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="3">
+        <v>176.0</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="C177" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E177" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="F177" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G177" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H177" s="14">
+        <v>8.877287622E9</v>
+      </c>
+      <c r="I177" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="3">
+        <v>177.0</v>
+      </c>
+      <c r="B178" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C178" s="17">
+        <v>10.0</v>
+      </c>
+      <c r="D178" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E178" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="F178" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G178" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H178" s="20">
+        <v>9.672576232E9</v>
+      </c>
+      <c r="I178" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="3">
+        <v>178.0</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="C179" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E179" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="F179" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G179" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H179" s="14">
+        <v>7.563854156E9</v>
+      </c>
+      <c r="I179" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="3">
+        <v>179.0</v>
+      </c>
+      <c r="B180" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="C180" s="16"/>
+      <c r="D180" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E180" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="F180" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G180" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H180" s="20">
+        <v>8.651666881E9</v>
+      </c>
+      <c r="I180" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="3">
+        <v>180.0</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C181" s="9"/>
+      <c r="D181" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E181" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="F181" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G181" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H181" s="14">
+        <v>6.201372919E9</v>
+      </c>
+      <c r="I181" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" s="24"/>
+      <c r="C182" s="24"/>
+      <c r="D182" s="25"/>
+    </row>
+    <row r="183">
+      <c r="B183" s="24"/>
+      <c r="C183" s="24"/>
+      <c r="D183" s="25"/>
+    </row>
+    <row r="184">
+      <c r="B184" s="24"/>
+      <c r="C184" s="24"/>
+      <c r="D184" s="25"/>
+    </row>
+    <row r="185">
+      <c r="B185" s="24"/>
+      <c r="C185" s="24"/>
+      <c r="D185" s="25"/>
+    </row>
+    <row r="186">
+      <c r="B186" s="24"/>
+      <c r="C186" s="24"/>
+      <c r="D186" s="26"/>
+    </row>
+    <row r="187">
+      <c r="B187" s="24"/>
+      <c r="C187" s="24"/>
+      <c r="D187" s="25"/>
+    </row>
+    <row r="188">
+      <c r="B188" s="24"/>
+      <c r="C188" s="24"/>
+      <c r="D188" s="25"/>
+    </row>
+    <row r="189">
+      <c r="B189" s="24"/>
+      <c r="C189" s="24"/>
+      <c r="D189" s="25"/>
+    </row>
+    <row r="190">
+      <c r="B190" s="24"/>
+      <c r="C190" s="24"/>
+      <c r="D190" s="25"/>
+    </row>
+    <row r="191">
+      <c r="B191" s="24"/>
+      <c r="C191" s="24"/>
+      <c r="D191" s="25"/>
+    </row>
+    <row r="192">
+      <c r="B192" s="24"/>
+      <c r="C192" s="24"/>
+      <c r="D192" s="25"/>
+    </row>
+    <row r="193">
+      <c r="B193" s="24"/>
+      <c r="C193" s="24"/>
+      <c r="D193" s="25"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Adhyayan.xlsx
+++ b/Adhyayan.xlsx
@@ -1312,7 +1312,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1325,12 +1325,6 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE0F7FA"/>
-        <bgColor rgb="FFE0F7FA"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -1338,7 +1332,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1366,103 +1360,35 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE0F7FA"/>
-          <bgColor rgb="FFE0F7FA"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-  </dxfs>
-  <tableStyles count="2">
-    <tableStyle count="2" pivot="0" name="Sheet1-style">
-      <tableStyleElement dxfId="1" type="firstRowStripe"/>
-      <tableStyleElement dxfId="2" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="2" pivot="0" name="Sheet1-style 2">
-      <tableStyleElement dxfId="1" type="firstRowStripe"/>
-      <tableStyleElement dxfId="2" type="secondRowStripe"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
@@ -1472,27 +1398,6 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="G73:I181" displayName="Table_1" id="1">
-  <tableColumns count="3">
-    <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
-    <tableColumn name="Column3" id="3"/>
-  </tableColumns>
-  <tableStyleInfo name="Sheet1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E73:F181" displayName="Table_2" id="2">
-  <tableColumns count="2">
-    <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
-  </tableColumns>
-  <tableStyleInfo name="Sheet1-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4243,17 +4148,17 @@
       <c r="D73" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E73" s="12" t="s">
+      <c r="E73" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="F73" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G73" s="12"/>
-      <c r="H73" s="14">
+      <c r="F73" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G73" s="9"/>
+      <c r="H73" s="10">
         <v>9.060458475E9</v>
       </c>
-      <c r="I73" s="15" t="s">
+      <c r="I73" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4261,28 +4166,28 @@
       <c r="A74" s="3">
         <v>73.0</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C74" s="17">
+      <c r="C74" s="10">
         <v>4.0</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E74" s="18" t="s">
+      <c r="D74" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E74" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="F74" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G74" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H74" s="20">
+      <c r="F74" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H74" s="10">
         <v>9.709934452E9</v>
       </c>
-      <c r="I74" s="15" t="s">
+      <c r="I74" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4296,22 +4201,22 @@
       <c r="C75" s="10">
         <v>4.0</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E75" s="12" t="s">
+      <c r="D75" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E75" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F75" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G75" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H75" s="14">
+      <c r="F75" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H75" s="10">
         <v>7.491812236E9</v>
       </c>
-      <c r="I75" s="15" t="s">
+      <c r="I75" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4319,28 +4224,28 @@
       <c r="A76" s="3">
         <v>75.0</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C76" s="17">
+      <c r="C76" s="10">
         <v>4.0</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E76" s="18" t="s">
+      <c r="D76" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E76" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="F76" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G76" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H76" s="20">
+      <c r="F76" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H76" s="10">
         <v>6.205551335E9</v>
       </c>
-      <c r="I76" s="15" t="s">
+      <c r="I76" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4354,22 +4259,22 @@
       <c r="C77" s="10">
         <v>4.0</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E77" s="12" t="s">
+      <c r="D77" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E77" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="F77" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H77" s="14">
+      <c r="F77" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H77" s="10">
         <v>8.969425701E9</v>
       </c>
-      <c r="I77" s="15" t="s">
+      <c r="I77" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4377,28 +4282,28 @@
       <c r="A78" s="3">
         <v>77.0</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C78" s="17">
+      <c r="C78" s="10">
         <v>5.0</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E78" s="18" t="s">
+      <c r="D78" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E78" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F78" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G78" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H78" s="20">
+      <c r="F78" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H78" s="10">
         <v>7.491812236E9</v>
       </c>
-      <c r="I78" s="15" t="s">
+      <c r="I78" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4412,22 +4317,22 @@
       <c r="C79" s="10">
         <v>5.0</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E79" s="12" t="s">
+      <c r="D79" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E79" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="F79" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G79" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H79" s="14">
+      <c r="F79" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H79" s="10">
         <v>9.507818773E9</v>
       </c>
-      <c r="I79" s="15" t="s">
+      <c r="I79" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4435,28 +4340,28 @@
       <c r="A80" s="3">
         <v>79.0</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C80" s="17">
+      <c r="C80" s="10">
         <v>5.0</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E80" s="18" t="s">
+      <c r="D80" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E80" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="F80" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G80" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H80" s="20">
+      <c r="F80" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H80" s="10">
         <v>9.708082325E9</v>
       </c>
-      <c r="I80" s="15" t="s">
+      <c r="I80" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4473,19 +4378,19 @@
       <c r="D81" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E81" s="12" t="s">
+      <c r="E81" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="F81" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G81" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H81" s="14">
+      <c r="F81" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H81" s="10">
         <v>7.492943198E9</v>
       </c>
-      <c r="I81" s="15" t="s">
+      <c r="I81" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4493,28 +4398,28 @@
       <c r="A82" s="3">
         <v>81.0</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C82" s="17">
+      <c r="C82" s="10">
         <v>5.0</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E82" s="18" t="s">
+      <c r="D82" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E82" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="F82" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G82" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H82" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I82" s="15" t="s">
+      <c r="F82" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H82" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I82" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4528,22 +4433,22 @@
       <c r="C83" s="10">
         <v>5.0</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E83" s="12" t="s">
+      <c r="D83" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E83" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="F83" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G83" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H83" s="14">
+      <c r="F83" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H83" s="10">
         <v>9.507274237E9</v>
       </c>
-      <c r="I83" s="15" t="s">
+      <c r="I83" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4551,28 +4456,28 @@
       <c r="A84" s="3">
         <v>83.0</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C84" s="17">
+      <c r="C84" s="10">
         <v>5.0</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E84" s="18" t="s">
+      <c r="D84" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E84" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="F84" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G84" s="21">
+      <c r="F84" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G84" s="15">
         <v>40524.0</v>
       </c>
-      <c r="H84" s="20">
+      <c r="H84" s="10">
         <v>9.931710428E9</v>
       </c>
-      <c r="I84" s="15" t="s">
+      <c r="I84" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4586,22 +4491,22 @@
       <c r="C85" s="10">
         <v>5.0</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E85" s="12" t="s">
+      <c r="D85" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E85" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="F85" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G85" s="12" t="s">
+      <c r="F85" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G85" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="H85" s="14">
+      <c r="H85" s="10">
         <v>8.651666252E9</v>
       </c>
-      <c r="I85" s="15" t="s">
+      <c r="I85" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4609,28 +4514,28 @@
       <c r="A86" s="3">
         <v>85.0</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C86" s="17">
+      <c r="C86" s="10">
         <v>6.0</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E86" s="18" t="s">
+      <c r="D86" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E86" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="F86" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G86" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H86" s="20">
+      <c r="F86" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H86" s="10">
         <v>9.507818773E9</v>
       </c>
-      <c r="I86" s="15" t="s">
+      <c r="I86" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4644,22 +4549,22 @@
       <c r="C87" s="10">
         <v>6.0</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E87" s="12" t="s">
+      <c r="D87" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E87" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="F87" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G87" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H87" s="14">
+      <c r="F87" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H87" s="10">
         <v>9.708082325E9</v>
       </c>
-      <c r="I87" s="15" t="s">
+      <c r="I87" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4667,28 +4572,28 @@
       <c r="A88" s="3">
         <v>87.0</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="C88" s="17">
+      <c r="C88" s="10">
         <v>6.0</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E88" s="18" t="s">
+      <c r="D88" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E88" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="F88" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G88" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H88" s="20">
+      <c r="F88" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H88" s="10">
         <v>7.700858602E9</v>
       </c>
-      <c r="I88" s="15" t="s">
+      <c r="I88" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4705,19 +4610,19 @@
       <c r="D89" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E89" s="12" t="s">
+      <c r="E89" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="F89" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H89" s="14">
+      <c r="F89" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H89" s="10">
         <v>9.708381327E9</v>
       </c>
-      <c r="I89" s="15" t="s">
+      <c r="I89" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4725,28 +4630,28 @@
       <c r="A90" s="3">
         <v>89.0</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C90" s="17">
+      <c r="C90" s="10">
         <v>6.0</v>
       </c>
-      <c r="D90" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E90" s="18" t="s">
+      <c r="D90" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E90" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="F90" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G90" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H90" s="20">
+      <c r="F90" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H90" s="10">
         <v>6.203142206E9</v>
       </c>
-      <c r="I90" s="15" t="s">
+      <c r="I90" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4760,22 +4665,22 @@
       <c r="C91" s="10">
         <v>6.0</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E91" s="12" t="s">
+      <c r="D91" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E91" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="F91" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G91" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H91" s="14">
+      <c r="F91" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H91" s="10">
         <v>8.271101069E9</v>
       </c>
-      <c r="I91" s="15" t="s">
+      <c r="I91" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4783,28 +4688,28 @@
       <c r="A92" s="3">
         <v>91.0</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C92" s="17">
+      <c r="C92" s="10">
         <v>6.0</v>
       </c>
-      <c r="D92" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E92" s="18" t="s">
+      <c r="D92" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E92" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="F92" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G92" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H92" s="20">
+      <c r="F92" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H92" s="10">
         <v>9.525544125E9</v>
       </c>
-      <c r="I92" s="15" t="s">
+      <c r="I92" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4818,22 +4723,22 @@
       <c r="C93" s="10">
         <v>6.0</v>
       </c>
-      <c r="D93" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E93" s="12" t="s">
+      <c r="D93" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E93" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="F93" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G93" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H93" s="14">
+      <c r="F93" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H93" s="10">
         <v>8.809401306E9</v>
       </c>
-      <c r="I93" s="15" t="s">
+      <c r="I93" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4841,28 +4746,28 @@
       <c r="A94" s="3">
         <v>93.0</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C94" s="17">
+      <c r="C94" s="10">
         <v>6.0</v>
       </c>
-      <c r="D94" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E94" s="18" t="s">
+      <c r="D94" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E94" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="F94" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G94" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H94" s="20">
+      <c r="F94" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H94" s="10">
         <v>7.782987904E9</v>
       </c>
-      <c r="I94" s="15" t="s">
+      <c r="I94" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4876,22 +4781,22 @@
       <c r="C95" s="10">
         <v>6.0</v>
       </c>
-      <c r="D95" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E95" s="12" t="s">
+      <c r="D95" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E95" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="F95" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G95" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H95" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="I95" s="15" t="s">
+      <c r="F95" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I95" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4899,28 +4804,28 @@
       <c r="A96" s="3">
         <v>95.0</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="C96" s="17">
+      <c r="C96" s="10">
         <v>6.0</v>
       </c>
-      <c r="D96" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E96" s="18" t="s">
+      <c r="D96" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E96" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="F96" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G96" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H96" s="20">
+      <c r="F96" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H96" s="10">
         <v>9.23438164E9</v>
       </c>
-      <c r="I96" s="15" t="s">
+      <c r="I96" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4937,19 +4842,19 @@
       <c r="D97" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E97" s="12" t="s">
+      <c r="E97" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="F97" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G97" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H97" s="14">
+      <c r="F97" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H97" s="10">
         <v>7.070500388E9</v>
       </c>
-      <c r="I97" s="15" t="s">
+      <c r="I97" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4957,28 +4862,28 @@
       <c r="A98" s="3">
         <v>97.0</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="C98" s="17">
+      <c r="C98" s="10">
         <v>6.0</v>
       </c>
-      <c r="D98" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E98" s="18" t="s">
+      <c r="D98" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E98" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="F98" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G98" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H98" s="20">
+      <c r="F98" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H98" s="10">
         <v>8.271746928E9</v>
       </c>
-      <c r="I98" s="15" t="s">
+      <c r="I98" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4992,22 +4897,22 @@
       <c r="C99" s="10">
         <v>6.0</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E99" s="12" t="s">
+      <c r="D99" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E99" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="F99" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G99" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H99" s="14">
+      <c r="F99" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H99" s="10">
         <v>8.271111069E9</v>
       </c>
-      <c r="I99" s="15" t="s">
+      <c r="I99" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5015,28 +4920,28 @@
       <c r="A100" s="3">
         <v>99.0</v>
       </c>
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="C100" s="17">
+      <c r="C100" s="10">
         <v>6.0</v>
       </c>
-      <c r="D100" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E100" s="18" t="s">
+      <c r="D100" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E100" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="F100" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G100" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H100" s="20">
+      <c r="F100" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H100" s="10">
         <v>7.700859047E9</v>
       </c>
-      <c r="I100" s="15" t="s">
+      <c r="I100" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5050,22 +4955,22 @@
       <c r="C101" s="10">
         <v>7.0</v>
       </c>
-      <c r="D101" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E101" s="12" t="s">
+      <c r="D101" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E101" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="F101" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G101" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H101" s="14">
+      <c r="F101" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H101" s="10">
         <v>9.304729726E9</v>
       </c>
-      <c r="I101" s="15" t="s">
+      <c r="I101" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5073,28 +4978,28 @@
       <c r="A102" s="3">
         <v>101.0</v>
       </c>
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C102" s="17">
+      <c r="C102" s="10">
         <v>7.0</v>
       </c>
-      <c r="D102" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E102" s="18" t="s">
+      <c r="D102" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E102" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="F102" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G102" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H102" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I102" s="15" t="s">
+      <c r="F102" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G102" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H102" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I102" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5108,22 +5013,22 @@
       <c r="C103" s="10">
         <v>7.0</v>
       </c>
-      <c r="D103" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E103" s="12" t="s">
+      <c r="D103" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E103" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="F103" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G103" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H103" s="14">
+      <c r="F103" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G103" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H103" s="10">
         <v>8.651101995E9</v>
       </c>
-      <c r="I103" s="15" t="s">
+      <c r="I103" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5131,28 +5036,28 @@
       <c r="A104" s="3">
         <v>103.0</v>
       </c>
-      <c r="B104" s="16" t="s">
+      <c r="B104" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="C104" s="17">
+      <c r="C104" s="10">
         <v>7.0</v>
       </c>
-      <c r="D104" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E104" s="18" t="s">
+      <c r="D104" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E104" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="F104" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G104" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H104" s="20">
+      <c r="F104" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G104" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H104" s="10">
         <v>8.809401306E9</v>
       </c>
-      <c r="I104" s="15" t="s">
+      <c r="I104" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5169,19 +5074,19 @@
       <c r="D105" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E105" s="12" t="s">
+      <c r="E105" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="F105" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G105" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H105" s="14">
+      <c r="F105" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G105" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H105" s="10">
         <v>9.128093951E9</v>
       </c>
-      <c r="I105" s="15" t="s">
+      <c r="I105" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5189,28 +5094,28 @@
       <c r="A106" s="3">
         <v>105.0</v>
       </c>
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="C106" s="17">
+      <c r="C106" s="10">
         <v>7.0</v>
       </c>
-      <c r="D106" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E106" s="18" t="s">
+      <c r="D106" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E106" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="F106" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G106" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H106" s="20">
+      <c r="F106" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H106" s="10">
         <v>8.873932465E9</v>
       </c>
-      <c r="I106" s="15" t="s">
+      <c r="I106" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5224,22 +5129,22 @@
       <c r="C107" s="10">
         <v>7.0</v>
       </c>
-      <c r="D107" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E107" s="12" t="s">
+      <c r="D107" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E107" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="F107" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G107" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H107" s="14">
+      <c r="F107" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G107" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H107" s="10">
         <v>8.226855027E9</v>
       </c>
-      <c r="I107" s="15" t="s">
+      <c r="I107" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5247,28 +5152,28 @@
       <c r="A108" s="3">
         <v>107.0</v>
       </c>
-      <c r="B108" s="16" t="s">
+      <c r="B108" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C108" s="17">
+      <c r="C108" s="10">
         <v>7.0</v>
       </c>
-      <c r="D108" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E108" s="18" t="s">
+      <c r="D108" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E108" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="F108" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G108" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H108" s="20">
+      <c r="F108" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H108" s="10">
         <v>8.873185267E9</v>
       </c>
-      <c r="I108" s="15" t="s">
+      <c r="I108" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5282,22 +5187,22 @@
       <c r="C109" s="10">
         <v>7.0</v>
       </c>
-      <c r="D109" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E109" s="12" t="s">
+      <c r="D109" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E109" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="F109" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G109" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H109" s="14">
+      <c r="F109" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H109" s="10">
         <v>9.060458914E9</v>
       </c>
-      <c r="I109" s="15" t="s">
+      <c r="I109" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5305,28 +5210,28 @@
       <c r="A110" s="3">
         <v>109.0</v>
       </c>
-      <c r="B110" s="16" t="s">
+      <c r="B110" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="C110" s="17">
+      <c r="C110" s="10">
         <v>7.0</v>
       </c>
-      <c r="D110" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E110" s="18" t="s">
+      <c r="D110" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E110" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="F110" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G110" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H110" s="20">
+      <c r="F110" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H110" s="10">
         <v>6.204877844E9</v>
       </c>
-      <c r="I110" s="15" t="s">
+      <c r="I110" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5340,22 +5245,22 @@
       <c r="C111" s="10">
         <v>7.0</v>
       </c>
-      <c r="D111" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E111" s="12" t="s">
+      <c r="D111" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E111" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="F111" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G111" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H111" s="14">
+      <c r="F111" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H111" s="10">
         <v>8.114542109E9</v>
       </c>
-      <c r="I111" s="15" t="s">
+      <c r="I111" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5363,28 +5268,28 @@
       <c r="A112" s="3">
         <v>111.0</v>
       </c>
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="C112" s="17">
+      <c r="C112" s="10">
         <v>7.0</v>
       </c>
-      <c r="D112" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E112" s="18" t="s">
+      <c r="D112" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E112" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="F112" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G112" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H112" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I112" s="15" t="s">
+      <c r="F112" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H112" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I112" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5398,22 +5303,22 @@
       <c r="C113" s="10">
         <v>7.0</v>
       </c>
-      <c r="D113" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E113" s="12" t="s">
+      <c r="D113" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E113" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="F113" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G113" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H113" s="14">
+      <c r="F113" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H113" s="10">
         <v>9.608465434E9</v>
       </c>
-      <c r="I113" s="15" t="s">
+      <c r="I113" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5421,28 +5326,28 @@
       <c r="A114" s="3">
         <v>113.0</v>
       </c>
-      <c r="B114" s="16" t="s">
+      <c r="B114" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="C114" s="17">
+      <c r="C114" s="10">
         <v>7.0</v>
       </c>
-      <c r="D114" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E114" s="18" t="s">
+      <c r="D114" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E114" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="F114" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G114" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H114" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I114" s="15" t="s">
+      <c r="F114" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H114" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I114" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5456,22 +5361,22 @@
       <c r="C115" s="10">
         <v>7.0</v>
       </c>
-      <c r="D115" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E115" s="12" t="s">
+      <c r="D115" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E115" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="F115" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G115" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H115" s="14">
+      <c r="F115" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H115" s="10">
         <v>8.271264379E9</v>
       </c>
-      <c r="I115" s="15" t="s">
+      <c r="I115" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5479,28 +5384,28 @@
       <c r="A116" s="3">
         <v>115.0</v>
       </c>
-      <c r="B116" s="16" t="s">
+      <c r="B116" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="C116" s="17">
+      <c r="C116" s="10">
         <v>7.0</v>
       </c>
       <c r="D116" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E116" s="18" t="s">
+      <c r="E116" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="F116" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G116" s="19" t="s">
+      <c r="F116" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G116" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="H116" s="20">
+      <c r="H116" s="10">
         <v>9.955478862E9</v>
       </c>
-      <c r="I116" s="15" t="s">
+      <c r="I116" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5514,22 +5419,22 @@
       <c r="C117" s="10">
         <v>7.0</v>
       </c>
-      <c r="D117" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E117" s="12" t="s">
+      <c r="D117" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E117" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="F117" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G117" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H117" s="14">
+      <c r="F117" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H117" s="10">
         <v>8.969425701E9</v>
       </c>
-      <c r="I117" s="15" t="s">
+      <c r="I117" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5537,28 +5442,28 @@
       <c r="A118" s="3">
         <v>117.0</v>
       </c>
-      <c r="B118" s="16" t="s">
+      <c r="B118" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="C118" s="17">
+      <c r="C118" s="10">
         <v>7.0</v>
       </c>
-      <c r="D118" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E118" s="18" t="s">
+      <c r="D118" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E118" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="F118" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G118" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H118" s="20">
+      <c r="F118" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H118" s="10">
         <v>8.22793174E9</v>
       </c>
-      <c r="I118" s="15" t="s">
+      <c r="I118" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5572,22 +5477,22 @@
       <c r="C119" s="10">
         <v>7.0</v>
       </c>
-      <c r="D119" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E119" s="12" t="s">
+      <c r="D119" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E119" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="F119" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G119" s="12" t="s">
+      <c r="F119" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G119" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="H119" s="14">
+      <c r="H119" s="10">
         <v>9.905559265E9</v>
       </c>
-      <c r="I119" s="15" t="s">
+      <c r="I119" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5595,28 +5500,28 @@
       <c r="A120" s="3">
         <v>119.0</v>
       </c>
-      <c r="B120" s="16" t="s">
+      <c r="B120" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="C120" s="17">
+      <c r="C120" s="10">
         <v>7.0</v>
       </c>
-      <c r="D120" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E120" s="18" t="s">
+      <c r="D120" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E120" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="F120" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G120" s="22">
+      <c r="F120" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G120" s="16">
         <v>37987.0</v>
       </c>
-      <c r="H120" s="20">
+      <c r="H120" s="10">
         <v>8.298824921E9</v>
       </c>
-      <c r="I120" s="15" t="s">
+      <c r="I120" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5630,22 +5535,22 @@
       <c r="C121" s="10">
         <v>7.0</v>
       </c>
-      <c r="D121" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E121" s="12" t="s">
+      <c r="D121" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E121" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="F121" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G121" s="23">
+      <c r="F121" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G121" s="16">
         <v>39423.0</v>
       </c>
-      <c r="H121" s="14">
+      <c r="H121" s="10">
         <v>8.271618173E9</v>
       </c>
-      <c r="I121" s="15" t="s">
+      <c r="I121" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5653,28 +5558,28 @@
       <c r="A122" s="3">
         <v>121.0</v>
       </c>
-      <c r="B122" s="16" t="s">
+      <c r="B122" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="C122" s="17">
+      <c r="C122" s="10">
         <v>7.0</v>
       </c>
-      <c r="D122" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E122" s="18" t="s">
+      <c r="D122" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E122" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="F122" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G122" s="22">
+      <c r="F122" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G122" s="16">
         <v>39054.0</v>
       </c>
-      <c r="H122" s="20">
+      <c r="H122" s="10">
         <v>7.256853964E9</v>
       </c>
-      <c r="I122" s="15" t="s">
+      <c r="I122" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5688,22 +5593,22 @@
       <c r="C123" s="10">
         <v>7.0</v>
       </c>
-      <c r="D123" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E123" s="12" t="s">
+      <c r="D123" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E123" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="F123" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G123" s="23">
+      <c r="F123" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G123" s="16">
         <v>38841.0</v>
       </c>
-      <c r="H123" s="14">
+      <c r="H123" s="10">
         <v>6.206539192E9</v>
       </c>
-      <c r="I123" s="15" t="s">
+      <c r="I123" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5711,28 +5616,28 @@
       <c r="A124" s="3">
         <v>123.0</v>
       </c>
-      <c r="B124" s="16" t="s">
+      <c r="B124" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="C124" s="17">
+      <c r="C124" s="10">
         <v>8.0</v>
       </c>
       <c r="D124" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E124" s="18" t="s">
+      <c r="E124" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="F124" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G124" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H124" s="20">
+      <c r="F124" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H124" s="10">
         <v>8.651666881E9</v>
       </c>
-      <c r="I124" s="15" t="s">
+      <c r="I124" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5746,22 +5651,22 @@
       <c r="C125" s="10">
         <v>8.0</v>
       </c>
-      <c r="D125" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E125" s="12" t="s">
+      <c r="D125" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E125" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="F125" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G125" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H125" s="14">
+      <c r="F125" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G125" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H125" s="10">
         <v>7.070141513E9</v>
       </c>
-      <c r="I125" s="15" t="s">
+      <c r="I125" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5769,28 +5674,28 @@
       <c r="A126" s="3">
         <v>125.0</v>
       </c>
-      <c r="B126" s="16" t="s">
+      <c r="B126" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="C126" s="17">
+      <c r="C126" s="10">
         <v>8.0</v>
       </c>
-      <c r="D126" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E126" s="18" t="s">
+      <c r="D126" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E126" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="F126" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G126" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H126" s="20">
+      <c r="F126" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G126" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H126" s="10">
         <v>7.65427853E9</v>
       </c>
-      <c r="I126" s="15" t="s">
+      <c r="I126" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5804,22 +5709,22 @@
       <c r="C127" s="10">
         <v>8.0</v>
       </c>
-      <c r="D127" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E127" s="12" t="s">
+      <c r="D127" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E127" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="F127" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G127" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H127" s="14">
+      <c r="F127" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G127" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H127" s="10">
         <v>9.576243177E9</v>
       </c>
-      <c r="I127" s="15" t="s">
+      <c r="I127" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5827,28 +5732,28 @@
       <c r="A128" s="3">
         <v>127.0</v>
       </c>
-      <c r="B128" s="16" t="s">
+      <c r="B128" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="C128" s="17">
+      <c r="C128" s="10">
         <v>8.0</v>
       </c>
-      <c r="D128" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E128" s="18" t="s">
+      <c r="D128" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E128" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="F128" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G128" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H128" s="20">
+      <c r="F128" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G128" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H128" s="10">
         <v>7.3679621E9</v>
       </c>
-      <c r="I128" s="15" t="s">
+      <c r="I128" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5862,22 +5767,22 @@
       <c r="C129" s="10">
         <v>8.0</v>
       </c>
-      <c r="D129" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E129" s="12" t="s">
+      <c r="D129" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E129" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="F129" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G129" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H129" s="14">
+      <c r="F129" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G129" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H129" s="10">
         <v>7.35221626E9</v>
       </c>
-      <c r="I129" s="15" t="s">
+      <c r="I129" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5885,28 +5790,28 @@
       <c r="A130" s="3">
         <v>129.0</v>
       </c>
-      <c r="B130" s="16" t="s">
+      <c r="B130" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="C130" s="17">
+      <c r="C130" s="10">
         <v>8.0</v>
       </c>
-      <c r="D130" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E130" s="18" t="s">
+      <c r="D130" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E130" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="F130" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G130" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H130" s="20">
+      <c r="F130" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G130" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H130" s="10">
         <v>7.323853952E9</v>
       </c>
-      <c r="I130" s="15" t="s">
+      <c r="I130" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5920,22 +5825,22 @@
       <c r="C131" s="10">
         <v>8.0</v>
       </c>
-      <c r="D131" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E131" s="12" t="s">
+      <c r="D131" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E131" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="F131" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G131" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H131" s="14">
+      <c r="F131" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G131" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H131" s="10">
         <v>9.507274237E9</v>
       </c>
-      <c r="I131" s="15" t="s">
+      <c r="I131" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5943,28 +5848,28 @@
       <c r="A132" s="3">
         <v>131.0</v>
       </c>
-      <c r="B132" s="16" t="s">
+      <c r="B132" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="C132" s="17">
+      <c r="C132" s="10">
         <v>8.0</v>
       </c>
       <c r="D132" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E132" s="18" t="s">
+      <c r="E132" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="F132" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G132" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H132" s="20">
+      <c r="F132" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G132" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H132" s="10">
         <v>9.234690234E9</v>
       </c>
-      <c r="I132" s="15" t="s">
+      <c r="I132" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5978,22 +5883,22 @@
       <c r="C133" s="10">
         <v>8.0</v>
       </c>
-      <c r="D133" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E133" s="12" t="s">
+      <c r="D133" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E133" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="F133" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G133" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H133" s="14">
+      <c r="F133" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G133" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H133" s="10">
         <v>8.271618173E9</v>
       </c>
-      <c r="I133" s="15" t="s">
+      <c r="I133" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6001,28 +5906,28 @@
       <c r="A134" s="3">
         <v>133.0</v>
       </c>
-      <c r="B134" s="16" t="s">
+      <c r="B134" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="C134" s="17">
+      <c r="C134" s="10">
         <v>8.0</v>
       </c>
-      <c r="D134" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E134" s="18" t="s">
+      <c r="D134" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E134" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="F134" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G134" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H134" s="20">
+      <c r="F134" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G134" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H134" s="10">
         <v>8.002135938E9</v>
       </c>
-      <c r="I134" s="15" t="s">
+      <c r="I134" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6036,22 +5941,22 @@
       <c r="C135" s="10">
         <v>8.0</v>
       </c>
-      <c r="D135" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E135" s="12" t="s">
+      <c r="D135" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E135" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="F135" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G135" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H135" s="14">
+      <c r="F135" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G135" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H135" s="10">
         <v>7.319626844E9</v>
       </c>
-      <c r="I135" s="15" t="s">
+      <c r="I135" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6059,28 +5964,28 @@
       <c r="A136" s="3">
         <v>135.0</v>
       </c>
-      <c r="B136" s="16" t="s">
+      <c r="B136" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="C136" s="17">
+      <c r="C136" s="10">
         <v>8.0</v>
       </c>
-      <c r="D136" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E136" s="18" t="s">
+      <c r="D136" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E136" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="F136" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G136" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H136" s="20">
+      <c r="F136" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G136" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H136" s="10">
         <v>7.5570211E8</v>
       </c>
-      <c r="I136" s="15" t="s">
+      <c r="I136" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6094,22 +5999,22 @@
       <c r="C137" s="10">
         <v>8.0</v>
       </c>
-      <c r="D137" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E137" s="12" t="s">
+      <c r="D137" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E137" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="F137" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G137" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H137" s="14">
+      <c r="F137" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G137" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H137" s="10">
         <v>8.789626621E9</v>
       </c>
-      <c r="I137" s="15" t="s">
+      <c r="I137" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6117,28 +6022,28 @@
       <c r="A138" s="3">
         <v>137.0</v>
       </c>
-      <c r="B138" s="16" t="s">
+      <c r="B138" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="C138" s="17">
+      <c r="C138" s="10">
         <v>8.0</v>
       </c>
-      <c r="D138" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E138" s="18" t="s">
+      <c r="D138" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E138" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="F138" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G138" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H138" s="20">
+      <c r="F138" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G138" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H138" s="10">
         <v>7.488303149E9</v>
       </c>
-      <c r="I138" s="15" t="s">
+      <c r="I138" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6152,22 +6057,22 @@
       <c r="C139" s="10">
         <v>8.0</v>
       </c>
-      <c r="D139" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E139" s="12" t="s">
+      <c r="D139" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E139" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="F139" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G139" s="12" t="s">
+      <c r="F139" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G139" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="H139" s="14">
+      <c r="H139" s="10">
         <v>8.521426678E9</v>
       </c>
-      <c r="I139" s="15" t="s">
+      <c r="I139" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6175,28 +6080,28 @@
       <c r="A140" s="3">
         <v>139.0</v>
       </c>
-      <c r="B140" s="16" t="s">
+      <c r="B140" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="C140" s="17">
+      <c r="C140" s="10">
         <v>8.0</v>
       </c>
-      <c r="D140" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E140" s="18" t="s">
+      <c r="D140" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E140" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="F140" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G140" s="18" t="s">
+      <c r="F140" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G140" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="H140" s="20">
+      <c r="H140" s="10">
         <v>8.541849954E9</v>
       </c>
-      <c r="I140" s="15" t="s">
+      <c r="I140" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6210,22 +6115,22 @@
       <c r="C141" s="10">
         <v>8.0</v>
       </c>
-      <c r="D141" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E141" s="12" t="s">
+      <c r="D141" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E141" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="F141" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G141" s="23">
+      <c r="F141" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G141" s="16">
         <v>37987.0</v>
       </c>
-      <c r="H141" s="14">
+      <c r="H141" s="10">
         <v>8.298824921E9</v>
       </c>
-      <c r="I141" s="15" t="s">
+      <c r="I141" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6233,28 +6138,28 @@
       <c r="A142" s="3">
         <v>141.0</v>
       </c>
-      <c r="B142" s="16" t="s">
+      <c r="B142" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="C142" s="17">
+      <c r="C142" s="10">
         <v>8.0</v>
       </c>
-      <c r="D142" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E142" s="18" t="s">
+      <c r="D142" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E142" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="F142" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G142" s="22">
+      <c r="F142" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G142" s="16">
         <v>38878.0</v>
       </c>
-      <c r="H142" s="20">
+      <c r="H142" s="10">
         <v>9.234690234E9</v>
       </c>
-      <c r="I142" s="15" t="s">
+      <c r="I142" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6271,19 +6176,19 @@
       <c r="D143" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E143" s="12" t="s">
+      <c r="E143" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="F143" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G143" s="12" t="s">
+      <c r="F143" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G143" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="H143" s="14">
+      <c r="H143" s="10">
         <v>8.651105821E9</v>
       </c>
-      <c r="I143" s="15" t="s">
+      <c r="I143" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6291,28 +6196,28 @@
       <c r="A144" s="3">
         <v>143.0</v>
       </c>
-      <c r="B144" s="16" t="s">
+      <c r="B144" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="C144" s="17">
+      <c r="C144" s="10">
         <v>8.0</v>
       </c>
-      <c r="D144" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E144" s="18" t="s">
+      <c r="D144" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E144" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="F144" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G144" s="22">
+      <c r="F144" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G144" s="16">
         <v>38838.0</v>
       </c>
-      <c r="H144" s="20">
+      <c r="H144" s="10">
         <v>7.370946321E9</v>
       </c>
-      <c r="I144" s="15" t="s">
+      <c r="I144" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6326,22 +6231,22 @@
       <c r="C145" s="10">
         <v>8.0</v>
       </c>
-      <c r="D145" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E145" s="12" t="s">
+      <c r="D145" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E145" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="F145" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G145" s="23">
+      <c r="F145" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G145" s="16">
         <v>38841.0</v>
       </c>
-      <c r="H145" s="14">
+      <c r="H145" s="10">
         <v>6.206539192E9</v>
       </c>
-      <c r="I145" s="15" t="s">
+      <c r="I145" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6349,28 +6254,28 @@
       <c r="A146" s="3">
         <v>145.0</v>
       </c>
-      <c r="B146" s="16" t="s">
+      <c r="B146" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="C146" s="17">
+      <c r="C146" s="10">
         <v>8.0</v>
       </c>
-      <c r="D146" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E146" s="18" t="s">
+      <c r="D146" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E146" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="F146" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G146" s="22">
+      <c r="F146" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G146" s="16">
         <v>38353.0</v>
       </c>
-      <c r="H146" s="20">
+      <c r="H146" s="10">
         <v>7.654883115E9</v>
       </c>
-      <c r="I146" s="15" t="s">
+      <c r="I146" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6384,22 +6289,22 @@
       <c r="C147" s="10">
         <v>8.0</v>
       </c>
-      <c r="D147" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E147" s="12" t="s">
+      <c r="D147" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E147" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="F147" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G147" s="23">
+      <c r="F147" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G147" s="16">
         <v>38570.0</v>
       </c>
-      <c r="H147" s="14">
+      <c r="H147" s="10">
         <v>7.492943198E9</v>
       </c>
-      <c r="I147" s="15" t="s">
+      <c r="I147" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6407,28 +6312,28 @@
       <c r="A148" s="3">
         <v>147.0</v>
       </c>
-      <c r="B148" s="16" t="s">
+      <c r="B148" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C148" s="17">
+      <c r="C148" s="10">
         <v>9.0</v>
       </c>
-      <c r="D148" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E148" s="18" t="s">
+      <c r="D148" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E148" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="F148" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G148" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H148" s="20">
+      <c r="F148" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G148" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H148" s="10">
         <v>9.708252292E9</v>
       </c>
-      <c r="I148" s="15" t="s">
+      <c r="I148" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6442,22 +6347,22 @@
       <c r="C149" s="10">
         <v>9.0</v>
       </c>
-      <c r="D149" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E149" s="12" t="s">
+      <c r="D149" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E149" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="F149" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G149" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H149" s="14">
+      <c r="F149" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G149" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H149" s="10">
         <v>9.576243177E9</v>
       </c>
-      <c r="I149" s="15" t="s">
+      <c r="I149" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6465,28 +6370,28 @@
       <c r="A150" s="3">
         <v>149.0</v>
       </c>
-      <c r="B150" s="16" t="s">
+      <c r="B150" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="C150" s="17">
+      <c r="C150" s="10">
         <v>9.0</v>
       </c>
-      <c r="D150" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E150" s="18" t="s">
+      <c r="D150" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E150" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="F150" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G150" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H150" s="20">
+      <c r="F150" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G150" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H150" s="10">
         <v>7.370091612E9</v>
       </c>
-      <c r="I150" s="15" t="s">
+      <c r="I150" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6503,19 +6408,19 @@
       <c r="D151" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E151" s="12" t="s">
+      <c r="E151" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="F151" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G151" s="13" t="s">
+      <c r="F151" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G151" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="H151" s="14">
+      <c r="H151" s="10">
         <v>7.634002038E9</v>
       </c>
-      <c r="I151" s="15" t="s">
+      <c r="I151" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6523,28 +6428,28 @@
       <c r="A152" s="3">
         <v>151.0</v>
       </c>
-      <c r="B152" s="16" t="s">
+      <c r="B152" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="C152" s="17">
+      <c r="C152" s="10">
         <v>9.0</v>
       </c>
-      <c r="D152" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E152" s="18" t="s">
+      <c r="D152" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E152" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="F152" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G152" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H152" s="20">
+      <c r="F152" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G152" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H152" s="10">
         <v>7.079884159E9</v>
       </c>
-      <c r="I152" s="15" t="s">
+      <c r="I152" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6558,22 +6463,22 @@
       <c r="C153" s="10">
         <v>9.0</v>
       </c>
-      <c r="D153" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E153" s="12" t="s">
+      <c r="D153" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E153" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="F153" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G153" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H153" s="14">
+      <c r="F153" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G153" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H153" s="10">
         <v>9.546870714E9</v>
       </c>
-      <c r="I153" s="15" t="s">
+      <c r="I153" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6581,28 +6486,28 @@
       <c r="A154" s="3">
         <v>153.0</v>
       </c>
-      <c r="B154" s="16" t="s">
+      <c r="B154" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="C154" s="17">
+      <c r="C154" s="10">
         <v>9.0</v>
       </c>
-      <c r="D154" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E154" s="18" t="s">
+      <c r="D154" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E154" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="F154" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G154" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H154" s="20">
+      <c r="F154" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G154" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H154" s="10">
         <v>9.570721323E9</v>
       </c>
-      <c r="I154" s="15" t="s">
+      <c r="I154" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6616,22 +6521,22 @@
       <c r="C155" s="10">
         <v>9.0</v>
       </c>
-      <c r="D155" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E155" s="12" t="s">
+      <c r="D155" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E155" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="F155" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G155" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H155" s="14">
+      <c r="F155" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G155" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H155" s="10">
         <v>8.521432473E9</v>
       </c>
-      <c r="I155" s="15" t="s">
+      <c r="I155" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6639,28 +6544,28 @@
       <c r="A156" s="3">
         <v>155.0</v>
       </c>
-      <c r="B156" s="16" t="s">
+      <c r="B156" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="C156" s="17">
+      <c r="C156" s="10">
         <v>9.0</v>
       </c>
-      <c r="D156" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E156" s="18" t="s">
+      <c r="D156" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E156" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="F156" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G156" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H156" s="20">
+      <c r="F156" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G156" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H156" s="10">
         <v>7.549428288E9</v>
       </c>
-      <c r="I156" s="15" t="s">
+      <c r="I156" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6674,22 +6579,22 @@
       <c r="C157" s="10">
         <v>9.0</v>
       </c>
-      <c r="D157" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E157" s="12" t="s">
+      <c r="D157" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E157" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="F157" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G157" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H157" s="14">
+      <c r="F157" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G157" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H157" s="10">
         <v>6.200153369E9</v>
       </c>
-      <c r="I157" s="15" t="s">
+      <c r="I157" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6697,28 +6602,28 @@
       <c r="A158" s="3">
         <v>157.0</v>
       </c>
-      <c r="B158" s="16" t="s">
+      <c r="B158" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="C158" s="17">
+      <c r="C158" s="10">
         <v>9.0</v>
       </c>
-      <c r="D158" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E158" s="18" t="s">
+      <c r="D158" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E158" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="F158" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G158" s="19" t="s">
+      <c r="F158" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G158" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="H158" s="20">
+      <c r="H158" s="10">
         <v>9.507818773E9</v>
       </c>
-      <c r="I158" s="15" t="s">
+      <c r="I158" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6735,19 +6640,19 @@
       <c r="D159" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E159" s="12" t="s">
+      <c r="E159" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="F159" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G159" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H159" s="14">
+      <c r="F159" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G159" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H159" s="10">
         <v>7.079884159E9</v>
       </c>
-      <c r="I159" s="15" t="s">
+      <c r="I159" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6755,28 +6660,28 @@
       <c r="A160" s="3">
         <v>159.0</v>
       </c>
-      <c r="B160" s="16" t="s">
+      <c r="B160" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="C160" s="17">
+      <c r="C160" s="10">
         <v>9.0</v>
       </c>
-      <c r="D160" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E160" s="18" t="s">
+      <c r="D160" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E160" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="F160" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G160" s="19" t="s">
+      <c r="F160" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G160" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="H160" s="20">
+      <c r="H160" s="10">
         <v>6.205551335E9</v>
       </c>
-      <c r="I160" s="15" t="s">
+      <c r="I160" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6790,22 +6695,22 @@
       <c r="C161" s="10">
         <v>9.0</v>
       </c>
-      <c r="D161" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E161" s="12" t="s">
+      <c r="D161" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E161" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="F161" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G161" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H161" s="14">
+      <c r="F161" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G161" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H161" s="10">
         <v>8.651101995E9</v>
       </c>
-      <c r="I161" s="15" t="s">
+      <c r="I161" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6813,28 +6718,28 @@
       <c r="A162" s="3">
         <v>161.0</v>
       </c>
-      <c r="B162" s="16" t="s">
+      <c r="B162" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="C162" s="17">
+      <c r="C162" s="10">
         <v>9.0</v>
       </c>
-      <c r="D162" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E162" s="18" t="s">
+      <c r="D162" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E162" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="F162" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G162" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H162" s="20">
+      <c r="F162" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G162" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H162" s="10">
         <v>9.608533113E9</v>
       </c>
-      <c r="I162" s="15" t="s">
+      <c r="I162" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6848,22 +6753,22 @@
       <c r="C163" s="10">
         <v>9.0</v>
       </c>
-      <c r="D163" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E163" s="12" t="s">
+      <c r="D163" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E163" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="F163" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G163" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H163" s="14">
+      <c r="F163" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G163" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H163" s="10">
         <v>9.546870714E9</v>
       </c>
-      <c r="I163" s="15" t="s">
+      <c r="I163" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6871,28 +6776,28 @@
       <c r="A164" s="3">
         <v>163.0</v>
       </c>
-      <c r="B164" s="16" t="s">
+      <c r="B164" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="C164" s="17">
+      <c r="C164" s="10">
         <v>9.0</v>
       </c>
-      <c r="D164" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E164" s="18" t="s">
+      <c r="D164" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E164" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="F164" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G164" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H164" s="20">
+      <c r="F164" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G164" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H164" s="10">
         <v>8.709786621E9</v>
       </c>
-      <c r="I164" s="15" t="s">
+      <c r="I164" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6906,22 +6811,22 @@
       <c r="C165" s="10">
         <v>9.0</v>
       </c>
-      <c r="D165" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E165" s="12" t="s">
+      <c r="D165" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E165" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="F165" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G165" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H165" s="14">
+      <c r="F165" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G165" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H165" s="10">
         <v>7.644069135E9</v>
       </c>
-      <c r="I165" s="15" t="s">
+      <c r="I165" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6929,28 +6834,28 @@
       <c r="A166" s="3">
         <v>165.0</v>
       </c>
-      <c r="B166" s="16" t="s">
+      <c r="B166" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="C166" s="17">
+      <c r="C166" s="10">
         <v>9.0</v>
       </c>
-      <c r="D166" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E166" s="18" t="s">
+      <c r="D166" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E166" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="F166" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G166" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H166" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I166" s="15" t="s">
+      <c r="F166" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G166" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H166" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I166" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6964,22 +6869,22 @@
       <c r="C167" s="10">
         <v>9.0</v>
       </c>
-      <c r="D167" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E167" s="12" t="s">
+      <c r="D167" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E167" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="F167" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G167" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H167" s="14">
+      <c r="F167" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G167" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H167" s="10">
         <v>9.801443047E9</v>
       </c>
-      <c r="I167" s="15" t="s">
+      <c r="I167" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6987,28 +6892,28 @@
       <c r="A168" s="3">
         <v>167.0</v>
       </c>
-      <c r="B168" s="16" t="s">
+      <c r="B168" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C168" s="17">
+      <c r="C168" s="10">
         <v>9.0</v>
       </c>
-      <c r="D168" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E168" s="18" t="s">
+      <c r="D168" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E168" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="F168" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G168" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H168" s="20">
+      <c r="F168" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G168" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H168" s="10">
         <v>7.667390931E9</v>
       </c>
-      <c r="I168" s="15" t="s">
+      <c r="I168" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -7022,22 +6927,22 @@
       <c r="C169" s="10">
         <v>9.0</v>
       </c>
-      <c r="D169" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E169" s="12" t="s">
+      <c r="D169" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E169" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="F169" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G169" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H169" s="14">
+      <c r="F169" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G169" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H169" s="10">
         <v>7.004154296E9</v>
       </c>
-      <c r="I169" s="15" t="s">
+      <c r="I169" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -7045,28 +6950,28 @@
       <c r="A170" s="3">
         <v>169.0</v>
       </c>
-      <c r="B170" s="16" t="s">
+      <c r="B170" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="C170" s="17">
+      <c r="C170" s="10">
         <v>9.0</v>
       </c>
       <c r="D170" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E170" s="18" t="s">
+      <c r="E170" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="F170" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G170" s="21">
+      <c r="F170" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G170" s="15">
         <v>38637.0</v>
       </c>
-      <c r="H170" s="20">
+      <c r="H170" s="10">
         <v>8.292632613E9</v>
       </c>
-      <c r="I170" s="15" t="s">
+      <c r="I170" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -7080,22 +6985,22 @@
       <c r="C171" s="10">
         <v>9.0</v>
       </c>
-      <c r="D171" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E171" s="12" t="s">
+      <c r="D171" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E171" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="F171" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G171" s="12" t="s">
+      <c r="F171" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G171" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="H171" s="14">
+      <c r="H171" s="10">
         <v>7.654651093E9</v>
       </c>
-      <c r="I171" s="15" t="s">
+      <c r="I171" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -7103,28 +7008,28 @@
       <c r="A172" s="3">
         <v>171.0</v>
       </c>
-      <c r="B172" s="16" t="s">
+      <c r="B172" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C172" s="17">
+      <c r="C172" s="10">
         <v>9.0</v>
       </c>
-      <c r="D172" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E172" s="18" t="s">
+      <c r="D172" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E172" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="F172" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G172" s="22">
+      <c r="F172" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G172" s="16">
         <v>37841.0</v>
       </c>
-      <c r="H172" s="20">
+      <c r="H172" s="10">
         <v>7.645941909E9</v>
       </c>
-      <c r="I172" s="15" t="s">
+      <c r="I172" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -7138,22 +7043,22 @@
       <c r="C173" s="10">
         <v>9.0</v>
       </c>
-      <c r="D173" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E173" s="12" t="s">
+      <c r="D173" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E173" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="F173" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G173" s="23">
+      <c r="F173" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G173" s="16">
         <v>38627.0</v>
       </c>
-      <c r="H173" s="14">
+      <c r="H173" s="10">
         <v>7.782955673E9</v>
       </c>
-      <c r="I173" s="15" t="s">
+      <c r="I173" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -7161,28 +7066,28 @@
       <c r="A174" s="3">
         <v>173.0</v>
       </c>
-      <c r="B174" s="16" t="s">
+      <c r="B174" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="C174" s="17">
+      <c r="C174" s="10">
         <v>9.0</v>
       </c>
-      <c r="D174" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E174" s="18" t="s">
+      <c r="D174" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E174" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="F174" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G174" s="22">
+      <c r="F174" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G174" s="16">
         <v>38484.0</v>
       </c>
-      <c r="H174" s="20">
+      <c r="H174" s="10">
         <v>9.135247389E9</v>
       </c>
-      <c r="I174" s="15" t="s">
+      <c r="I174" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -7196,22 +7101,22 @@
       <c r="C175" s="10">
         <v>9.0</v>
       </c>
-      <c r="D175" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E175" s="12" t="s">
+      <c r="D175" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E175" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="F175" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G175" s="23">
+      <c r="F175" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G175" s="16">
         <v>38413.0</v>
       </c>
-      <c r="H175" s="14">
+      <c r="H175" s="10">
         <v>8.651981688E9</v>
       </c>
-      <c r="I175" s="15" t="s">
+      <c r="I175" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -7219,28 +7124,28 @@
       <c r="A176" s="3">
         <v>175.0</v>
       </c>
-      <c r="B176" s="16" t="s">
+      <c r="B176" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="C176" s="17">
+      <c r="C176" s="10">
         <v>10.0</v>
       </c>
-      <c r="D176" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E176" s="18" t="s">
+      <c r="D176" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E176" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="F176" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G176" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H176" s="20">
+      <c r="F176" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G176" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H176" s="10">
         <v>9.523222452E9</v>
       </c>
-      <c r="I176" s="15" t="s">
+      <c r="I176" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -7254,22 +7159,22 @@
       <c r="C177" s="10">
         <v>10.0</v>
       </c>
-      <c r="D177" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E177" s="12" t="s">
+      <c r="D177" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E177" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="F177" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G177" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H177" s="14">
+      <c r="F177" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G177" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H177" s="10">
         <v>8.877287622E9</v>
       </c>
-      <c r="I177" s="15" t="s">
+      <c r="I177" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -7277,28 +7182,28 @@
       <c r="A178" s="3">
         <v>177.0</v>
       </c>
-      <c r="B178" s="16" t="s">
+      <c r="B178" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="C178" s="17">
+      <c r="C178" s="10">
         <v>10.0</v>
       </c>
       <c r="D178" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E178" s="18" t="s">
+      <c r="E178" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="F178" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G178" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H178" s="20">
+      <c r="F178" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G178" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H178" s="10">
         <v>9.672576232E9</v>
       </c>
-      <c r="I178" s="15" t="s">
+      <c r="I178" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -7312,22 +7217,22 @@
       <c r="C179" s="10">
         <v>10.0</v>
       </c>
-      <c r="D179" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E179" s="12" t="s">
+      <c r="D179" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E179" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="F179" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G179" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H179" s="14">
+      <c r="F179" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G179" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H179" s="10">
         <v>7.563854156E9</v>
       </c>
-      <c r="I179" s="15" t="s">
+      <c r="I179" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -7335,26 +7240,26 @@
       <c r="A180" s="3">
         <v>179.0</v>
       </c>
-      <c r="B180" s="16" t="s">
+      <c r="B180" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="C180" s="16"/>
-      <c r="D180" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E180" s="18" t="s">
+      <c r="C180" s="9"/>
+      <c r="D180" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E180" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="F180" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G180" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H180" s="20">
+      <c r="F180" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G180" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H180" s="10">
         <v>8.651666881E9</v>
       </c>
-      <c r="I180" s="15" t="s">
+      <c r="I180" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -7366,91 +7271,87 @@
         <v>221</v>
       </c>
       <c r="C181" s="9"/>
-      <c r="D181" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E181" s="12" t="s">
+      <c r="D181" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E181" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="F181" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G181" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H181" s="14">
+      <c r="F181" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G181" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H181" s="10">
         <v>6.201372919E9</v>
       </c>
-      <c r="I181" s="15" t="s">
+      <c r="I181" s="13" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="182">
-      <c r="B182" s="24"/>
-      <c r="C182" s="24"/>
-      <c r="D182" s="25"/>
+      <c r="B182" s="9"/>
+      <c r="C182" s="9"/>
+      <c r="D182" s="14"/>
     </row>
     <row r="183">
-      <c r="B183" s="24"/>
-      <c r="C183" s="24"/>
-      <c r="D183" s="25"/>
+      <c r="B183" s="9"/>
+      <c r="C183" s="9"/>
+      <c r="D183" s="14"/>
     </row>
     <row r="184">
-      <c r="B184" s="24"/>
-      <c r="C184" s="24"/>
-      <c r="D184" s="25"/>
+      <c r="B184" s="9"/>
+      <c r="C184" s="9"/>
+      <c r="D184" s="14"/>
     </row>
     <row r="185">
-      <c r="B185" s="24"/>
-      <c r="C185" s="24"/>
-      <c r="D185" s="25"/>
+      <c r="B185" s="9"/>
+      <c r="C185" s="9"/>
+      <c r="D185" s="14"/>
     </row>
     <row r="186">
-      <c r="B186" s="24"/>
-      <c r="C186" s="24"/>
-      <c r="D186" s="26"/>
+      <c r="B186" s="9"/>
+      <c r="C186" s="9"/>
+      <c r="D186" s="11"/>
     </row>
     <row r="187">
-      <c r="B187" s="24"/>
-      <c r="C187" s="24"/>
-      <c r="D187" s="25"/>
+      <c r="B187" s="9"/>
+      <c r="C187" s="9"/>
+      <c r="D187" s="14"/>
     </row>
     <row r="188">
-      <c r="B188" s="24"/>
-      <c r="C188" s="24"/>
-      <c r="D188" s="25"/>
+      <c r="B188" s="9"/>
+      <c r="C188" s="9"/>
+      <c r="D188" s="14"/>
     </row>
     <row r="189">
-      <c r="B189" s="24"/>
-      <c r="C189" s="24"/>
-      <c r="D189" s="25"/>
+      <c r="B189" s="9"/>
+      <c r="C189" s="9"/>
+      <c r="D189" s="14"/>
     </row>
     <row r="190">
-      <c r="B190" s="24"/>
-      <c r="C190" s="24"/>
-      <c r="D190" s="25"/>
+      <c r="B190" s="9"/>
+      <c r="C190" s="9"/>
+      <c r="D190" s="14"/>
     </row>
     <row r="191">
-      <c r="B191" s="24"/>
-      <c r="C191" s="24"/>
-      <c r="D191" s="25"/>
+      <c r="B191" s="9"/>
+      <c r="C191" s="9"/>
+      <c r="D191" s="14"/>
     </row>
     <row r="192">
-      <c r="B192" s="24"/>
-      <c r="C192" s="24"/>
-      <c r="D192" s="25"/>
+      <c r="B192" s="9"/>
+      <c r="C192" s="9"/>
+      <c r="D192" s="14"/>
     </row>
     <row r="193">
-      <c r="B193" s="24"/>
-      <c r="C193" s="24"/>
-      <c r="D193" s="25"/>
+      <c r="B193" s="9"/>
+      <c r="C193" s="9"/>
+      <c r="D193" s="14"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
-  <tableParts count="2">
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
-  </tableParts>
 </worksheet>
 </file>
 
